--- a/Index Combination/Safety and Stability Index vs GDP per capita.xlsx
+++ b/Index Combination/Safety and Stability Index vs GDP per capita.xlsx
@@ -465,7 +465,7 @@
         <v>2013</v>
       </c>
       <c r="C2" t="n">
-        <v>2.527123619929475</v>
+        <v>0.4596488084497843</v>
       </c>
       <c r="D2" t="n">
         <v>4413.06339738921</v>
@@ -481,7 +481,7 @@
         <v>2013</v>
       </c>
       <c r="C3" t="n">
-        <v>3.645859296723312</v>
+        <v>0.5891042011786592</v>
       </c>
       <c r="D3" t="n">
         <v>5519.77757552373</v>
@@ -497,7 +497,7 @@
         <v>2013</v>
       </c>
       <c r="C4" t="n">
-        <v>2.937682560068962</v>
+        <v>0.5083372427637534</v>
       </c>
       <c r="D4" t="n">
         <v>13080.2547323367</v>
@@ -513,7 +513,7 @@
         <v>2013</v>
       </c>
       <c r="C5" t="n">
-        <v>3.612684554181069</v>
+        <v>0.5844974164734543</v>
       </c>
       <c r="D5" t="n">
         <v>3833.15707143416</v>
@@ -529,7 +529,7 @@
         <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>3.140651921346168</v>
+        <v>0.6465742503110612</v>
       </c>
       <c r="D6" t="n">
         <v>68156.3861047269</v>
@@ -545,7 +545,7 @@
         <v>2013</v>
       </c>
       <c r="C7" t="n">
-        <v>3.260905440709295</v>
+        <v>0.697238160059186</v>
       </c>
       <c r="D7" t="n">
         <v>50731.1272541851</v>
@@ -561,7 +561,7 @@
         <v>2013</v>
       </c>
       <c r="C8" t="n">
-        <v>3.573312027186218</v>
+        <v>0.547313672120042</v>
       </c>
       <c r="D8" t="n">
         <v>7875.3446110554</v>
@@ -577,7 +577,7 @@
         <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>3.375804910350468</v>
+        <v>0.5708429692864134</v>
       </c>
       <c r="D9" t="n">
         <v>25790.7303121382</v>
@@ -593,7 +593,7 @@
         <v>2013</v>
       </c>
       <c r="C10" t="n">
-        <v>3.715629480305214</v>
+        <v>0.6164123289901791</v>
       </c>
       <c r="D10" t="n">
         <v>7998.07795284714</v>
@@ -609,7 +609,7 @@
         <v>2013</v>
       </c>
       <c r="C11" t="n">
-        <v>3.626699324984361</v>
+        <v>0.7207568419338444</v>
       </c>
       <c r="D11" t="n">
         <v>46757.9518559601</v>
@@ -625,7 +625,7 @@
         <v>2013</v>
       </c>
       <c r="C12" t="n">
-        <v>3.047919115020117</v>
+        <v>0.5947786239477357</v>
       </c>
       <c r="D12" t="n">
         <v>7686.62922249699</v>
@@ -641,7 +641,7 @@
         <v>2013</v>
       </c>
       <c r="C13" t="n">
-        <v>2.889506496097311</v>
+        <v>0.6106196493679987</v>
       </c>
       <c r="D13" t="n">
         <v>52635.1749580433</v>
@@ -657,7 +657,7 @@
         <v>2013</v>
       </c>
       <c r="C14" t="n">
-        <v>3.5145122174259</v>
+        <v>0.6705149951013283</v>
       </c>
       <c r="D14" t="n">
         <v>15833.2759194461</v>
@@ -673,7 +673,7 @@
         <v>2013</v>
       </c>
       <c r="C15" t="n">
-        <v>3.103609376437169</v>
+        <v>0.5251081113467962</v>
       </c>
       <c r="D15" t="n">
         <v>7020.38568208449</v>
@@ -689,7 +689,7 @@
         <v>2013</v>
       </c>
       <c r="C16" t="n">
-        <v>3.137407315640869</v>
+        <v>0.4152642519242805</v>
       </c>
       <c r="D16" t="n">
         <v>8263.64192942212</v>
@@ -705,7 +705,7 @@
         <v>2013</v>
       </c>
       <c r="C17" t="n">
-        <v>3.389459412251351</v>
+        <v>0.6670128350800766</v>
       </c>
       <c r="D17" t="n">
         <v>13949.1217681988</v>
@@ -721,7 +721,7 @@
         <v>2013</v>
       </c>
       <c r="C18" t="n">
-        <v>4.30092836537547</v>
+        <v>0.7497488983797709</v>
       </c>
       <c r="D18" t="n">
         <v>27797.453125</v>
@@ -737,7 +737,7 @@
         <v>2013</v>
       </c>
       <c r="C19" t="n">
-        <v>3.43264587647017</v>
+        <v>0.7387743127450284</v>
       </c>
       <c r="D19" t="n">
         <v>61191.1937042028</v>
@@ -753,7 +753,7 @@
         <v>2013</v>
       </c>
       <c r="C20" t="n">
-        <v>2.474701500119556</v>
+        <v>0.4016588831134511</v>
       </c>
       <c r="D20" t="n">
         <v>6171.29506392047</v>
@@ -769,7 +769,7 @@
         <v>2013</v>
       </c>
       <c r="C21" t="n">
-        <v>2.490475062902039</v>
+        <v>0.416278217917726</v>
       </c>
       <c r="D21" t="n">
         <v>6050.3546113274</v>
@@ -785,7 +785,7 @@
         <v>2013</v>
       </c>
       <c r="C22" t="n">
-        <v>4.259203847138525</v>
+        <v>0.7844845371499091</v>
       </c>
       <c r="D22" t="n">
         <v>19056.0019226991</v>
@@ -801,7 +801,7 @@
         <v>2013</v>
       </c>
       <c r="C23" t="n">
-        <v>3.796935315529835</v>
+        <v>0.7675762880614657</v>
       </c>
       <c r="D23" t="n">
         <v>49892.2233632736</v>
@@ -817,7 +817,7 @@
         <v>2013</v>
       </c>
       <c r="C24" t="n">
-        <v>3.475914100108279</v>
+        <v>0.6360428683725936</v>
       </c>
       <c r="D24" t="n">
         <v>42602.7179652671</v>
@@ -833,7 +833,7 @@
         <v>2013</v>
       </c>
       <c r="C25" t="n">
-        <v>4.153943963853136</v>
+        <v>0.6385516272535154</v>
       </c>
       <c r="D25" t="n">
         <v>4623.88471369397</v>
@@ -849,7 +849,7 @@
         <v>2013</v>
       </c>
       <c r="C26" t="n">
-        <v>3.26080517834106</v>
+        <v>0.6533181107971126</v>
       </c>
       <c r="D26" t="n">
         <v>46298.9229177345</v>
@@ -865,7 +865,7 @@
         <v>2013</v>
       </c>
       <c r="C27" t="n">
-        <v>3.700460598155114</v>
+        <v>0.6249522505871877</v>
       </c>
       <c r="D27" t="n">
         <v>21787.7877636036</v>
@@ -881,7 +881,7 @@
         <v>2013</v>
       </c>
       <c r="C28" t="n">
-        <v>2.196162183801849</v>
+        <v>0.3476724835021159</v>
       </c>
       <c r="D28" t="n">
         <v>3522.76754110253</v>
@@ -897,7 +897,7 @@
         <v>2013</v>
       </c>
       <c r="C29" t="n">
-        <v>1.549064366680541</v>
+        <v>0.229308182124307</v>
       </c>
       <c r="D29" t="n">
         <v>2064.55051938928</v>
@@ -913,7 +913,7 @@
         <v>2013</v>
       </c>
       <c r="C30" t="n">
-        <v>3.012274928040911</v>
+        <v>0.6157702264314634</v>
       </c>
       <c r="D30" t="n">
         <v>13715.0703590361</v>
@@ -929,7 +929,7 @@
         <v>2013</v>
       </c>
       <c r="C31" t="n">
-        <v>2.904165161420058</v>
+        <v>0.4280415464569309</v>
       </c>
       <c r="D31" t="n">
         <v>1438.05699513067</v>
@@ -945,7 +945,7 @@
         <v>2013</v>
       </c>
       <c r="C32" t="n">
-        <v>2.566433064866556</v>
+        <v>0.5195115798020538</v>
       </c>
       <c r="D32" t="n">
         <v>3602.88551680629</v>
@@ -961,7 +961,7 @@
         <v>2013</v>
       </c>
       <c r="C33" t="n">
-        <v>2.446704080498751</v>
+        <v>0.5440134913725552</v>
       </c>
       <c r="D33" t="n">
         <v>51546.3547634549</v>
@@ -977,7 +977,7 @@
         <v>2013</v>
       </c>
       <c r="C34" t="n">
-        <v>4.161604843772752</v>
+        <v>0.5806142734456153</v>
       </c>
       <c r="D34" t="n">
         <v>36941.8423573582</v>
@@ -993,7 +993,7 @@
         <v>2013</v>
       </c>
       <c r="C35" t="n">
-        <v>3.322858279599239</v>
+        <v>0.6275046035081926</v>
       </c>
       <c r="D35" t="n">
         <v>35560.0814062291</v>
@@ -1009,7 +1009,7 @@
         <v>2013</v>
       </c>
       <c r="C36" t="n">
-        <v>3.279326565162199</v>
+        <v>0.6724537081025725</v>
       </c>
       <c r="D36" t="n">
         <v>40898.6478964744</v>
@@ -1025,7 +1025,7 @@
         <v>2013</v>
       </c>
       <c r="C37" t="n">
-        <v>2.95051811795518</v>
+        <v>0.5091852277388867</v>
       </c>
       <c r="D37" t="n">
         <v>13890.6339998972</v>
@@ -1041,7 +1041,7 @@
         <v>2013</v>
       </c>
       <c r="C38" t="n">
-        <v>2.716140231774122</v>
+        <v>0.3943059766478361</v>
       </c>
       <c r="D38" t="n">
         <v>1376.8292062766</v>
@@ -1057,7 +1057,7 @@
         <v>2013</v>
       </c>
       <c r="C39" t="n">
-        <v>3.309012135136276</v>
+        <v>0.6150511831941756</v>
       </c>
       <c r="D39" t="n">
         <v>15007.4918561719</v>
@@ -1073,7 +1073,7 @@
         <v>2013</v>
       </c>
       <c r="C40" t="n">
-        <v>3.626362373269322</v>
+        <v>0.6640690655319743</v>
       </c>
       <c r="D40" t="n">
         <v>15729.6524666512</v>
@@ -1089,7 +1089,7 @@
         <v>2013</v>
       </c>
       <c r="C41" t="n">
-        <v>2.05953166919223</v>
+        <v>0.4438824687539531</v>
       </c>
       <c r="D41" t="n">
         <v>10727.6705533054</v>
@@ -1105,7 +1105,7 @@
         <v>2013</v>
       </c>
       <c r="C42" t="n">
-        <v>2.444550976068216</v>
+        <v>0.3543906671974974</v>
       </c>
       <c r="D42" t="n">
         <v>10865.6872912453</v>
@@ -1121,7 +1121,7 @@
         <v>2013</v>
       </c>
       <c r="C43" t="n">
-        <v>3.44130690256101</v>
+        <v>0.5998378134041453</v>
       </c>
       <c r="D43" t="n">
         <v>4422.30087597824</v>
@@ -1137,7 +1137,7 @@
         <v>2013</v>
       </c>
       <c r="C44" t="n">
-        <v>3.702024381223867</v>
+        <v>0.6759415289495967</v>
       </c>
       <c r="D44" t="n">
         <v>7188.86244459578</v>
@@ -1153,7 +1153,7 @@
         <v>2013</v>
       </c>
       <c r="C45" t="n">
-        <v>2.898628941279076</v>
+        <v>0.5092070187134561</v>
       </c>
       <c r="D45" t="n">
         <v>809.384457748037</v>
@@ -1169,7 +1169,7 @@
         <v>2013</v>
       </c>
       <c r="C46" t="n">
-        <v>3.190364745465692</v>
+        <v>0.682160956931978</v>
       </c>
       <c r="D46" t="n">
         <v>42976.6495882584</v>
@@ -1185,7 +1185,7 @@
         <v>2013</v>
       </c>
       <c r="C47" t="n">
-        <v>3.759268199025958</v>
+        <v>0.7227446629440974</v>
       </c>
       <c r="D47" t="n">
         <v>103553.840134417</v>
@@ -1201,7 +1201,7 @@
         <v>2013</v>
       </c>
       <c r="C48" t="n">
-        <v>2.66916733908511</v>
+        <v>0.4842451006942255</v>
       </c>
       <c r="D48" t="n">
         <v>11932.2862205866</v>
@@ -1217,7 +1217,7 @@
         <v>2013</v>
       </c>
       <c r="C49" t="n">
-        <v>2.621475476208637</v>
+        <v>0.4344222639281504</v>
       </c>
       <c r="D49" t="n">
         <v>6435.82655022784</v>
@@ -1233,7 +1233,7 @@
         <v>2013</v>
       </c>
       <c r="C50" t="n">
-        <v>2.624127190401132</v>
+        <v>0.4562624822961489</v>
       </c>
       <c r="D50" t="n">
         <v>6697.18768268879</v>
@@ -1249,7 +1249,7 @@
         <v>2013</v>
       </c>
       <c r="C51" t="n">
-        <v>2.301442557714518</v>
+        <v>0.353597740434434</v>
       </c>
       <c r="D51" t="n">
         <v>2847.56795417743</v>
@@ -1265,7 +1265,7 @@
         <v>2013</v>
       </c>
       <c r="C52" t="n">
-        <v>3.561508042572649</v>
+        <v>0.7067556754223185</v>
       </c>
       <c r="D52" t="n">
         <v>13558.3425613478</v>
@@ -1281,7 +1281,7 @@
         <v>2013</v>
       </c>
       <c r="C53" t="n">
-        <v>3.498593966735475</v>
+        <v>0.6968233995472239</v>
       </c>
       <c r="D53" t="n">
         <v>21653.1959752226</v>
@@ -1297,7 +1297,7 @@
         <v>2013</v>
       </c>
       <c r="C54" t="n">
-        <v>3.472307894772482</v>
+        <v>0.6815587867417336</v>
       </c>
       <c r="D54" t="n">
         <v>9497.207426878551</v>
@@ -1313,7 +1313,7 @@
         <v>2013</v>
       </c>
       <c r="C55" t="n">
-        <v>3.449054982727336</v>
+        <v>0.408175830454556</v>
       </c>
       <c r="D55" t="n">
         <v>15974.623046875</v>
@@ -1329,7 +1329,7 @@
         <v>2013</v>
       </c>
       <c r="C56" t="n">
-        <v>3.533380943065791</v>
+        <v>0.5875133152665453</v>
       </c>
       <c r="D56" t="n">
         <v>23945.5123106892</v>
@@ -1345,7 +1345,7 @@
         <v>2013</v>
       </c>
       <c r="C57" t="n">
-        <v>3.971591632409544</v>
+        <v>0.7843263309134888</v>
       </c>
       <c r="D57" t="n">
         <v>56967.4257940383</v>
@@ -1361,7 +1361,7 @@
         <v>2013</v>
       </c>
       <c r="C58" t="n">
-        <v>3.667165273879403</v>
+        <v>0.7426275271997862</v>
       </c>
       <c r="D58" t="n">
         <v>23503.2824850257</v>
@@ -1377,7 +1377,7 @@
         <v>2013</v>
       </c>
       <c r="C59" t="n">
-        <v>2.409617934943824</v>
+        <v>0.343956798417588</v>
       </c>
       <c r="D59" t="n">
         <v>7441.23085399675</v>
@@ -1393,7 +1393,7 @@
         <v>2013</v>
       </c>
       <c r="C60" t="n">
-        <v>2.991875006876008</v>
+        <v>0.5941079263443043</v>
       </c>
       <c r="D60" t="n">
         <v>29077.1820557566</v>
@@ -1409,7 +1409,7 @@
         <v>2013</v>
       </c>
       <c r="C61" t="n">
-        <v>3.865987927390227</v>
+        <v>0.7678325202724718</v>
       </c>
       <c r="D61" t="n">
         <v>61126.9431963979</v>
@@ -1425,7 +1425,7 @@
         <v>2013</v>
       </c>
       <c r="C62" t="n">
-        <v>3.427171184507872</v>
+        <v>0.7065023363222398</v>
       </c>
       <c r="D62" t="n">
         <v>87304.33058135569</v>
@@ -1441,7 +1441,7 @@
         <v>2013</v>
       </c>
       <c r="C63" t="n">
-        <v>4.080864942615663</v>
+        <v>0.6538574941253001</v>
       </c>
       <c r="D63" t="n">
         <v>6041.13401347979</v>
@@ -1457,7 +1457,7 @@
         <v>2013</v>
       </c>
       <c r="C64" t="n">
-        <v>3.344443758175236</v>
+        <v>0.5787133251266049</v>
       </c>
       <c r="D64" t="n">
         <v>4308.33742099708</v>
@@ -1473,7 +1473,7 @@
         <v>2013</v>
       </c>
       <c r="C65" t="n">
-        <v>3.794316532901944</v>
+        <v>0.6341385330154781</v>
       </c>
       <c r="D65" t="n">
         <v>7049.79750519535</v>
@@ -1489,7 +1489,7 @@
         <v>2013</v>
       </c>
       <c r="C66" t="n">
-        <v>1.918450478121575</v>
+        <v>0.2956686971006904</v>
       </c>
       <c r="D66" t="n">
         <v>819.757867445612</v>
@@ -1505,7 +1505,7 @@
         <v>2013</v>
       </c>
       <c r="C67" t="n">
-        <v>3.361733109278712</v>
+        <v>0.5454391928119012</v>
       </c>
       <c r="D67" t="n">
         <v>4187.73974609375</v>
@@ -1521,7 +1521,7 @@
         <v>2013</v>
       </c>
       <c r="C68" t="n">
-        <v>3.667741900327494</v>
+        <v>0.6960532755849272</v>
       </c>
       <c r="D68" t="n">
         <v>45729.607675743</v>
@@ -1537,7 +1537,7 @@
         <v>2013</v>
       </c>
       <c r="C69" t="n">
-        <v>3.662995157462976</v>
+        <v>0.577018285328869</v>
       </c>
       <c r="D69" t="n">
         <v>53291.1276891406</v>
@@ -1553,7 +1553,7 @@
         <v>2013</v>
       </c>
       <c r="C70" t="n">
-        <v>3.223933569079324</v>
+        <v>0.6233764950494687</v>
       </c>
       <c r="D70" t="n">
         <v>18140.8919180672</v>
@@ -1569,7 +1569,7 @@
         <v>2014</v>
       </c>
       <c r="C71" t="n">
-        <v>3.192891908556973</v>
+        <v>0.5776496739210497</v>
       </c>
       <c r="D71" t="n">
         <v>4578.63320812155</v>
@@ -1585,7 +1585,7 @@
         <v>2014</v>
       </c>
       <c r="C72" t="n">
-        <v>3.694968125707565</v>
+        <v>0.6131013679178594</v>
       </c>
       <c r="D72" t="n">
         <v>5516.22946321562</v>
@@ -1601,7 +1601,7 @@
         <v>2014</v>
       </c>
       <c r="C73" t="n">
-        <v>3.012022747116337</v>
+        <v>0.5452894080913049</v>
       </c>
       <c r="D73" t="n">
         <v>12334.7982453893</v>
@@ -1617,7 +1617,7 @@
         <v>2014</v>
       </c>
       <c r="C74" t="n">
-        <v>3.51326358757392</v>
+        <v>0.5979842857272144</v>
       </c>
       <c r="D74" t="n">
         <v>4017.22991251531</v>
@@ -1633,7 +1633,7 @@
         <v>2014</v>
       </c>
       <c r="C75" t="n">
-        <v>3.193196707701626</v>
+        <v>0.6666575289932157</v>
       </c>
       <c r="D75" t="n">
         <v>62515.3148315008</v>
@@ -1649,7 +1649,7 @@
         <v>2014</v>
       </c>
       <c r="C76" t="n">
-        <v>3.70235401897605</v>
+        <v>0.7700924046623342</v>
       </c>
       <c r="D76" t="n">
         <v>51786.3771747897</v>
@@ -1665,7 +1665,7 @@
         <v>2014</v>
       </c>
       <c r="C77" t="n">
-        <v>3.691595245179264</v>
+        <v>0.584250195941602</v>
       </c>
       <c r="D77" t="n">
         <v>7890.83525042681</v>
@@ -1681,7 +1681,7 @@
         <v>2014</v>
       </c>
       <c r="C78" t="n">
-        <v>3.608746009843574</v>
+        <v>0.617476754878496</v>
       </c>
       <c r="D78" t="n">
         <v>25464.760097715</v>
@@ -1697,7 +1697,7 @@
         <v>2014</v>
       </c>
       <c r="C79" t="n">
-        <v>3.696639214456228</v>
+        <v>0.6220710892532705</v>
       </c>
       <c r="D79" t="n">
         <v>8341.28810376533</v>
@@ -1713,7 +1713,7 @@
         <v>2014</v>
       </c>
       <c r="C80" t="n">
-        <v>3.699640566290279</v>
+        <v>0.738965315922272</v>
       </c>
       <c r="D80" t="n">
         <v>47764.0715120825</v>
@@ -1729,7 +1729,7 @@
         <v>2014</v>
       </c>
       <c r="C81" t="n">
-        <v>3.097664870940797</v>
+        <v>0.6120511662883605</v>
       </c>
       <c r="D81" t="n">
         <v>7912.52053999441</v>
@@ -1745,7 +1745,7 @@
         <v>2014</v>
       </c>
       <c r="C82" t="n">
-        <v>2.887144130923367</v>
+        <v>0.6219541513365803</v>
       </c>
       <c r="D82" t="n">
         <v>50955.9983232404</v>
@@ -1761,7 +1761,7 @@
         <v>2014</v>
       </c>
       <c r="C83" t="n">
-        <v>3.43253125401997</v>
+        <v>0.66922555665159</v>
       </c>
       <c r="D83" t="n">
         <v>14666.3431168586</v>
@@ -1777,7 +1777,7 @@
         <v>2014</v>
       </c>
       <c r="C84" t="n">
-        <v>3.109797712948895</v>
+        <v>0.5356820319127504</v>
       </c>
       <c r="D84" t="n">
         <v>7636.07422276004</v>
@@ -1793,7 +1793,7 @@
         <v>2014</v>
       </c>
       <c r="C85" t="n">
-        <v>3.037027126680575</v>
+        <v>0.4107383316110433</v>
       </c>
       <c r="D85" t="n">
         <v>8167.47284156278</v>
@@ -1809,7 +1809,7 @@
         <v>2014</v>
       </c>
       <c r="C86" t="n">
-        <v>3.626007596747433</v>
+        <v>0.7122078100918522</v>
       </c>
       <c r="D86" t="n">
         <v>13970.9832274478</v>
@@ -1825,7 +1825,7 @@
         <v>2014</v>
       </c>
       <c r="C87" t="n">
-        <v>3.906190246724783</v>
+        <v>0.674037842756789</v>
       </c>
       <c r="D87" t="n">
         <v>27244.34375</v>
@@ -1841,7 +1841,7 @@
         <v>2014</v>
       </c>
       <c r="C88" t="n">
-        <v>3.389809241782884</v>
+        <v>0.7316348736304805</v>
       </c>
       <c r="D88" t="n">
         <v>62548.9847332908</v>
@@ -1857,7 +1857,7 @@
         <v>2014</v>
       </c>
       <c r="C89" t="n">
-        <v>2.404298014902307</v>
+        <v>0.3993530093003504</v>
       </c>
       <c r="D89" t="n">
         <v>6533.67096798065</v>
@@ -1873,7 +1873,7 @@
         <v>2014</v>
       </c>
       <c r="C90" t="n">
-        <v>2.496054669861631</v>
+        <v>0.4367998410232916</v>
       </c>
       <c r="D90" t="n">
         <v>6374.6314856366</v>
@@ -1889,7 +1889,7 @@
         <v>2014</v>
       </c>
       <c r="C91" t="n">
-        <v>4.032476503692122</v>
+        <v>0.7700685106698867</v>
       </c>
       <c r="D91" t="n">
         <v>20261.0667303883</v>
@@ -1905,7 +1905,7 @@
         <v>2014</v>
       </c>
       <c r="C92" t="n">
-        <v>3.950352718074989</v>
+        <v>0.7981330876409917</v>
       </c>
       <c r="D92" t="n">
         <v>50327.2402902624</v>
@@ -1921,7 +1921,7 @@
         <v>2014</v>
       </c>
       <c r="C93" t="n">
-        <v>3.546507207797561</v>
+        <v>0.6500484064802343</v>
       </c>
       <c r="D93" t="n">
         <v>43068.5487241732</v>
@@ -1937,7 +1937,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>3.518273340647418</v>
+        <v>0.5817776631140381</v>
       </c>
       <c r="D94" t="n">
         <v>4739.27780775509</v>
@@ -1953,7 +1953,7 @@
         <v>2014</v>
       </c>
       <c r="C95" t="n">
-        <v>3.397993699507116</v>
+        <v>0.6799996315811111</v>
       </c>
       <c r="D95" t="n">
         <v>48023.8699845455</v>
@@ -1969,7 +1969,7 @@
         <v>2014</v>
       </c>
       <c r="C96" t="n">
-        <v>3.938167412462619</v>
+        <v>0.6773223806047104</v>
       </c>
       <c r="D96" t="n">
         <v>21616.7100094905</v>
@@ -1985,7 +1985,7 @@
         <v>2014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.131239528105257</v>
+        <v>0.3536728456862545</v>
       </c>
       <c r="D97" t="n">
         <v>3779.62604225079</v>
@@ -2001,7 +2001,7 @@
         <v>2014</v>
       </c>
       <c r="C98" t="n">
-        <v>1.518240588648748</v>
+        <v>0.2407701594578179</v>
       </c>
       <c r="D98" t="n">
         <v>2164.42451571622</v>
@@ -2017,7 +2017,7 @@
         <v>2014</v>
       </c>
       <c r="C99" t="n">
-        <v>3.160789109926185</v>
+        <v>0.6486454924178271</v>
       </c>
       <c r="D99" t="n">
         <v>14294.2584180751</v>
@@ -2033,7 +2033,7 @@
         <v>2014</v>
       </c>
       <c r="C100" t="n">
-        <v>3.011706836383759</v>
+        <v>0.4619034229692086</v>
       </c>
       <c r="D100" t="n">
         <v>1559.86377161811</v>
@@ -2049,7 +2049,7 @@
         <v>2014</v>
       </c>
       <c r="C101" t="n">
-        <v>2.778747892434656</v>
+        <v>0.5420271708931652</v>
       </c>
       <c r="D101" t="n">
         <v>3476.62485432866</v>
@@ -2065,7 +2065,7 @@
         <v>2014</v>
       </c>
       <c r="C102" t="n">
-        <v>2.327127887466094</v>
+        <v>0.5241872995810906</v>
       </c>
       <c r="D102" t="n">
         <v>55643.0594338739</v>
@@ -2081,7 +2081,7 @@
         <v>2014</v>
       </c>
       <c r="C103" t="n">
-        <v>4.344059763232058</v>
+        <v>0.6408470430199306</v>
       </c>
       <c r="D103" t="n">
         <v>38259.6810956173</v>
@@ -2097,7 +2097,7 @@
         <v>2014</v>
       </c>
       <c r="C104" t="n">
-        <v>3.482396230887551</v>
+        <v>0.6596427255978229</v>
       </c>
       <c r="D104" t="n">
         <v>35565.7213771491</v>
@@ -2113,7 +2113,7 @@
         <v>2014</v>
       </c>
       <c r="C105" t="n">
-        <v>3.359883931770966</v>
+        <v>0.6850658632024548</v>
       </c>
       <c r="D105" t="n">
         <v>38475.3952461838</v>
@@ -2129,7 +2129,7 @@
         <v>2014</v>
       </c>
       <c r="C106" t="n">
-        <v>3.134604631662004</v>
+        <v>0.5452698244317382</v>
       </c>
       <c r="D106" t="n">
         <v>12807.263069029</v>
@@ -2145,7 +2145,7 @@
         <v>2014</v>
       </c>
       <c r="C107" t="n">
-        <v>2.432505827996718</v>
+        <v>0.3709936434527591</v>
       </c>
       <c r="D107" t="n">
         <v>1489.9197238099</v>
@@ -2161,7 +2161,7 @@
         <v>2014</v>
       </c>
       <c r="C108" t="n">
-        <v>3.37105521244988</v>
+        <v>0.6627286976441686</v>
       </c>
       <c r="D108" t="n">
         <v>15742.3913381905</v>
@@ -2177,7 +2177,7 @@
         <v>2014</v>
       </c>
       <c r="C109" t="n">
-        <v>3.810317336778709</v>
+        <v>0.7093541846233089</v>
       </c>
       <c r="D109" t="n">
         <v>16551.018202078</v>
@@ -2193,7 +2193,7 @@
         <v>2014</v>
       </c>
       <c r="C110" t="n">
-        <v>2.360915378971536</v>
+        <v>0.4867033470746697</v>
       </c>
       <c r="D110" t="n">
         <v>11045.5809765322</v>
@@ -2209,7 +2209,7 @@
         <v>2014</v>
       </c>
       <c r="C111" t="n">
-        <v>2.445093497214629</v>
+        <v>0.382294042310141</v>
       </c>
       <c r="D111" t="n">
         <v>11076.1341141975</v>
@@ -2225,7 +2225,7 @@
         <v>2014</v>
       </c>
       <c r="C112" t="n">
-        <v>2.824456482152216</v>
+        <v>0.5402723993771076</v>
       </c>
       <c r="D112" t="n">
         <v>4211.93943483306</v>
@@ -2241,7 +2241,7 @@
         <v>2014</v>
       </c>
       <c r="C113" t="n">
-        <v>3.588765525030813</v>
+        <v>0.6635672603067717</v>
       </c>
       <c r="D113" t="n">
         <v>7387.87103632246</v>
@@ -2257,7 +2257,7 @@
         <v>2014</v>
       </c>
       <c r="C114" t="n">
-        <v>2.762257541762355</v>
+        <v>0.5016168840905902</v>
       </c>
       <c r="D114" t="n">
         <v>827.744704916142</v>
@@ -2273,7 +2273,7 @@
         <v>2014</v>
       </c>
       <c r="C115" t="n">
-        <v>3.443423342962373</v>
+        <v>0.7238698073308114</v>
       </c>
       <c r="D115" t="n">
         <v>44572.8987536626</v>
@@ -2289,7 +2289,7 @@
         <v>2014</v>
       </c>
       <c r="C116" t="n">
-        <v>3.968130367667206</v>
+        <v>0.7736590830910919</v>
       </c>
       <c r="D116" t="n">
         <v>97666.69518387489</v>
@@ -2305,7 +2305,7 @@
         <v>2014</v>
       </c>
       <c r="C117" t="n">
-        <v>2.509817589980189</v>
+        <v>0.4501706889912448</v>
       </c>
       <c r="D117" t="n">
         <v>12837.2479584282</v>
@@ -2321,7 +2321,7 @@
         <v>2014</v>
       </c>
       <c r="C118" t="n">
-        <v>2.79105439750406</v>
+        <v>0.4784681664551756</v>
       </c>
       <c r="D118" t="n">
         <v>6629.4265185753</v>
@@ -2337,7 +2337,7 @@
         <v>2014</v>
       </c>
       <c r="C119" t="n">
-        <v>2.657920817628944</v>
+        <v>0.4700829174575848</v>
       </c>
       <c r="D119" t="n">
         <v>6614.83049889676</v>
@@ -2353,7 +2353,7 @@
         <v>2014</v>
       </c>
       <c r="C120" t="n">
-        <v>2.53763110768223</v>
+        <v>0.3914115922483336</v>
       </c>
       <c r="D120" t="n">
         <v>2935.9285781194</v>
@@ -2369,7 +2369,7 @@
         <v>2014</v>
       </c>
       <c r="C121" t="n">
-        <v>3.555864070068314</v>
+        <v>0.7105717553726671</v>
       </c>
       <c r="D121" t="n">
         <v>14181.9501803099</v>
@@ -2385,7 +2385,7 @@
         <v>2014</v>
       </c>
       <c r="C122" t="n">
-        <v>3.671964133568866</v>
+        <v>0.7389538041292349</v>
       </c>
       <c r="D122" t="n">
         <v>22103.7009703317</v>
@@ -2401,7 +2401,7 @@
         <v>2014</v>
       </c>
       <c r="C123" t="n">
-        <v>3.597552078896384</v>
+        <v>0.7084877186708698</v>
       </c>
       <c r="D123" t="n">
         <v>10031.3421526698</v>
@@ -2417,7 +2417,7 @@
         <v>2014</v>
       </c>
       <c r="C124" t="n">
-        <v>3.533289776686551</v>
+        <v>0.4222149627810917</v>
       </c>
       <c r="D124" t="n">
         <v>14095.646484375</v>
@@ -2433,7 +2433,7 @@
         <v>2014</v>
       </c>
       <c r="C125" t="n">
-        <v>3.830007192723307</v>
+        <v>0.661511082904464</v>
       </c>
       <c r="D125" t="n">
         <v>23862.8011860096</v>
@@ -2449,7 +2449,7 @@
         <v>2014</v>
       </c>
       <c r="C126" t="n">
-        <v>3.893641720859973</v>
+        <v>0.7784563058965667</v>
       </c>
       <c r="D126" t="n">
         <v>57564.8023114977</v>
@@ -2465,7 +2465,7 @@
         <v>2014</v>
       </c>
       <c r="C127" t="n">
-        <v>3.586489592148783</v>
+        <v>0.7306726007364536</v>
       </c>
       <c r="D127" t="n">
         <v>24247.1733184079</v>
@@ -2481,7 +2481,7 @@
         <v>2014</v>
       </c>
       <c r="C128" t="n">
-        <v>2.322923014137101</v>
+        <v>0.3442090504134431</v>
       </c>
       <c r="D128" t="n">
         <v>6965.1378973693</v>
@@ -2497,7 +2497,7 @@
         <v>2014</v>
       </c>
       <c r="C129" t="n">
-        <v>3.44773271329193</v>
+        <v>0.6790870132241831</v>
       </c>
       <c r="D129" t="n">
         <v>29513.65118004</v>
@@ -2513,7 +2513,7 @@
         <v>2014</v>
       </c>
       <c r="C130" t="n">
-        <v>3.846865738053301</v>
+        <v>0.7689561506162454</v>
       </c>
       <c r="D130" t="n">
         <v>60020.3604576572</v>
@@ -2529,7 +2529,7 @@
         <v>2014</v>
       </c>
       <c r="C131" t="n">
-        <v>3.744975844156888</v>
+        <v>0.76117695562124</v>
       </c>
       <c r="D131" t="n">
         <v>88724.9909402638</v>
@@ -2545,7 +2545,7 @@
         <v>2014</v>
       </c>
       <c r="C132" t="n">
-        <v>4.155548706979807</v>
+        <v>0.6683924054918626</v>
       </c>
       <c r="D132" t="n">
         <v>5822.37772319938</v>
@@ -2561,7 +2561,7 @@
         <v>2014</v>
       </c>
       <c r="C133" t="n">
-        <v>3.462409744710104</v>
+        <v>0.5946211196875394</v>
       </c>
       <c r="D133" t="n">
         <v>4398.63869540854</v>
@@ -2577,7 +2577,7 @@
         <v>2014</v>
       </c>
       <c r="C134" t="n">
-        <v>3.898499207154286</v>
+        <v>0.6768459823784749</v>
       </c>
       <c r="D134" t="n">
         <v>7685.50985852327</v>
@@ -2593,7 +2593,7 @@
         <v>2014</v>
       </c>
       <c r="C135" t="n">
-        <v>1.886691970002328</v>
+        <v>0.3001337332416967</v>
       </c>
       <c r="D135" t="n">
         <v>897.509728519811</v>
@@ -2609,7 +2609,7 @@
         <v>2014</v>
       </c>
       <c r="C136" t="n">
-        <v>3.47376184020505</v>
+        <v>0.5159064553034322</v>
       </c>
       <c r="D136" t="n">
         <v>3104.65380859375</v>
@@ -2625,7 +2625,7 @@
         <v>2014</v>
       </c>
       <c r="C137" t="n">
-        <v>3.754397347921802</v>
+        <v>0.6981596125200276</v>
       </c>
       <c r="D137" t="n">
         <v>46865.9645976866</v>
@@ -2641,7 +2641,7 @@
         <v>2014</v>
       </c>
       <c r="C138" t="n">
-        <v>3.687384363039075</v>
+        <v>0.5922395887955377</v>
       </c>
       <c r="D138" t="n">
         <v>55123.8497869046</v>
@@ -2657,7 +2657,7 @@
         <v>2014</v>
       </c>
       <c r="C139" t="n">
-        <v>3.330817740276196</v>
+        <v>0.6330163173125629</v>
       </c>
       <c r="D139" t="n">
         <v>18131.5788465661</v>
@@ -2673,7 +2673,7 @@
         <v>2015</v>
       </c>
       <c r="C140" t="n">
-        <v>3.288687327874821</v>
+        <v>0.603670110201359</v>
       </c>
       <c r="D140" t="n">
         <v>3952.80358410846</v>
@@ -2689,7 +2689,7 @@
         <v>2015</v>
       </c>
       <c r="C141" t="n">
-        <v>3.744826372078013</v>
+        <v>0.6318064403361104</v>
       </c>
       <c r="D141" t="n">
         <v>4197.41997101868</v>
@@ -2705,7 +2705,7 @@
         <v>2015</v>
       </c>
       <c r="C142" t="n">
-        <v>2.996586526088496</v>
+        <v>0.5263567863862559</v>
       </c>
       <c r="D142" t="n">
         <v>13789.060424772</v>
@@ -2721,7 +2721,7 @@
         <v>2015</v>
       </c>
       <c r="C143" t="n">
-        <v>3.422873780106967</v>
+        <v>0.58683888155157</v>
       </c>
       <c r="D143" t="n">
         <v>3666.14182536082</v>
@@ -2737,7 +2737,7 @@
         <v>2015</v>
       </c>
       <c r="C144" t="n">
-        <v>3.211260372290406</v>
+        <v>0.6637035862474466</v>
       </c>
       <c r="D144" t="n">
         <v>56708.96119674</v>
@@ -2753,7 +2753,7 @@
         <v>2015</v>
       </c>
       <c r="C145" t="n">
-        <v>3.662927251532387</v>
+        <v>0.7686337511926847</v>
       </c>
       <c r="D145" t="n">
         <v>44195.8175947748</v>
@@ -2769,7 +2769,7 @@
         <v>2015</v>
       </c>
       <c r="C146" t="n">
-        <v>3.431279353918128</v>
+        <v>0.5360925712562933</v>
       </c>
       <c r="D146" t="n">
         <v>5500.50462041954</v>
@@ -2785,7 +2785,7 @@
         <v>2015</v>
       </c>
       <c r="C147" t="n">
-        <v>3.517641410703586</v>
+        <v>0.5934310326632767</v>
       </c>
       <c r="D147" t="n">
         <v>22795.4488576612</v>
@@ -2801,7 +2801,7 @@
         <v>2015</v>
       </c>
       <c r="C148" t="n">
-        <v>3.713169226739612</v>
+        <v>0.619031953604523</v>
       </c>
       <c r="D148" t="n">
         <v>5967.0691848005</v>
@@ -2817,7 +2817,7 @@
         <v>2015</v>
       </c>
       <c r="C149" t="n">
-        <v>3.716384402786419</v>
+        <v>0.7390293023048939</v>
       </c>
       <c r="D149" t="n">
         <v>41008.296719472</v>
@@ -2833,7 +2833,7 @@
         <v>2015</v>
       </c>
       <c r="C150" t="n">
-        <v>3.158953667349429</v>
+        <v>0.6198801442855729</v>
       </c>
       <c r="D150" t="n">
         <v>7081.10233572915</v>
@@ -2849,7 +2849,7 @@
         <v>2015</v>
       </c>
       <c r="C151" t="n">
-        <v>2.893885852469164</v>
+        <v>0.625634008813027</v>
       </c>
       <c r="D151" t="n">
         <v>43596.1355365546</v>
@@ -2865,7 +2865,7 @@
         <v>2015</v>
       </c>
       <c r="C152" t="n">
-        <v>3.526904978996366</v>
+        <v>0.6793307889329321</v>
       </c>
       <c r="D152" t="n">
         <v>13569.9481274733</v>
@@ -2881,7 +2881,7 @@
         <v>2015</v>
       </c>
       <c r="C153" t="n">
-        <v>2.858039346336909</v>
+        <v>0.4875873348189327</v>
       </c>
       <c r="D153" t="n">
         <v>8016.44601585644</v>
@@ -2897,7 +2897,7 @@
         <v>2015</v>
       </c>
       <c r="C154" t="n">
-        <v>3.135014730939064</v>
+        <v>0.4195713031456041</v>
       </c>
       <c r="D154" t="n">
         <v>6228.65162186096</v>
@@ -2913,7 +2913,7 @@
         <v>2015</v>
       </c>
       <c r="C155" t="n">
-        <v>3.547495683679582</v>
+        <v>0.6950325116971082</v>
       </c>
       <c r="D155" t="n">
         <v>12071.090955025</v>
@@ -2929,7 +2929,7 @@
         <v>2015</v>
       </c>
       <c r="C156" t="n">
-        <v>3.721805064147548</v>
+        <v>0.6632456293006651</v>
       </c>
       <c r="D156" t="n">
         <v>23487.21875</v>
@@ -2945,7 +2945,7 @@
         <v>2015</v>
       </c>
       <c r="C157" t="n">
-        <v>3.574407149754802</v>
+        <v>0.7624011916258002</v>
       </c>
       <c r="D157" t="n">
         <v>53254.8563700916</v>
@@ -2961,7 +2961,7 @@
         <v>2015</v>
       </c>
       <c r="C158" t="n">
-        <v>2.658747147167357</v>
+        <v>0.4455103459321192</v>
       </c>
       <c r="D158" t="n">
         <v>6838.9367346602</v>
@@ -2977,7 +2977,7 @@
         <v>2015</v>
       </c>
       <c r="C159" t="n">
-        <v>2.618162313607106</v>
+        <v>0.4626044210476737</v>
       </c>
       <c r="D159" t="n">
         <v>6130.58667556768</v>
@@ -2993,7 +2993,7 @@
         <v>2015</v>
       </c>
       <c r="C160" t="n">
-        <v>4.052888700176798</v>
+        <v>0.7632455945420769</v>
       </c>
       <c r="D160" t="n">
         <v>17402.0376128079</v>
@@ -3009,7 +3009,7 @@
         <v>2015</v>
       </c>
       <c r="C161" t="n">
-        <v>3.981865265944172</v>
+        <v>0.7998064468461826</v>
       </c>
       <c r="D161" t="n">
         <v>42801.9081167285</v>
@@ -3025,7 +3025,7 @@
         <v>2015</v>
       </c>
       <c r="C162" t="n">
-        <v>3.393970802766617</v>
+        <v>0.6239440090500599</v>
       </c>
       <c r="D162" t="n">
         <v>36652.9223052178</v>
@@ -3041,7 +3041,7 @@
         <v>2015</v>
       </c>
       <c r="C163" t="n">
-        <v>3.994159954056766</v>
+        <v>0.6796674224723104</v>
       </c>
       <c r="D163" t="n">
         <v>4014.11224099111</v>
@@ -3057,7 +3057,7 @@
         <v>2015</v>
       </c>
       <c r="C164" t="n">
-        <v>3.321643541004408</v>
+        <v>0.6723870796016208</v>
       </c>
       <c r="D164" t="n">
         <v>41103.2564363768</v>
@@ -3073,7 +3073,7 @@
         <v>2015</v>
       </c>
       <c r="C165" t="n">
-        <v>3.882574154957124</v>
+        <v>0.692426299173154</v>
       </c>
       <c r="D165" t="n">
         <v>18083.8779056547</v>
@@ -3089,7 +3089,7 @@
         <v>2015</v>
       </c>
       <c r="C166" t="n">
-        <v>2.088056822373334</v>
+        <v>0.3493727969122564</v>
       </c>
       <c r="D166" t="n">
         <v>3994.62908519019</v>
@@ -3105,7 +3105,7 @@
         <v>2015</v>
       </c>
       <c r="C167" t="n">
-        <v>1.391810014199886</v>
+        <v>0.2241292082289518</v>
       </c>
       <c r="D167" t="n">
         <v>2257.22528369354</v>
@@ -3121,7 +3121,7 @@
         <v>2015</v>
       </c>
       <c r="C168" t="n">
-        <v>2.810453917690277</v>
+        <v>0.5766230285448348</v>
       </c>
       <c r="D168" t="n">
         <v>12717.038597002</v>
@@ -3137,7 +3137,7 @@
         <v>2015</v>
       </c>
       <c r="C169" t="n">
-        <v>3.022116591719995</v>
+        <v>0.4651721245232029</v>
       </c>
       <c r="D169" t="n">
         <v>1590.17432166504</v>
@@ -3153,7 +3153,7 @@
         <v>2015</v>
       </c>
       <c r="C170" t="n">
-        <v>2.797700977589652</v>
+        <v>0.5560926305526038</v>
       </c>
       <c r="D170" t="n">
         <v>3322.58167907656</v>
@@ -3169,7 +3169,7 @@
         <v>2015</v>
       </c>
       <c r="C171" t="n">
-        <v>2.772525424340387</v>
+        <v>0.5934781637704325</v>
       </c>
       <c r="D171" t="n">
         <v>62053.9844381587</v>
@@ -3185,7 +3185,7 @@
         <v>2015</v>
       </c>
       <c r="C172" t="n">
-        <v>4.406612041235309</v>
+        <v>0.6408770579972959</v>
       </c>
       <c r="D172" t="n">
         <v>36206.5222171621</v>
@@ -3201,7 +3201,7 @@
         <v>2015</v>
       </c>
       <c r="C173" t="n">
-        <v>3.423160083671336</v>
+        <v>0.645339223215843</v>
       </c>
       <c r="D173" t="n">
         <v>30242.3861352184</v>
@@ -3217,7 +3217,7 @@
         <v>2015</v>
       </c>
       <c r="C174" t="n">
-        <v>3.712233151485418</v>
+        <v>0.7388486745318232</v>
       </c>
       <c r="D174" t="n">
         <v>34960.6393843385</v>
@@ -3233,7 +3233,7 @@
         <v>2015</v>
       </c>
       <c r="C175" t="n">
-        <v>2.969326414334881</v>
+        <v>0.5291413144545865</v>
       </c>
       <c r="D175" t="n">
         <v>10510.7703082872</v>
@@ -3249,7 +3249,7 @@
         <v>2015</v>
       </c>
       <c r="C176" t="n">
-        <v>2.566221664722629</v>
+        <v>0.3995850013801518</v>
       </c>
       <c r="D176" t="n">
         <v>1496.65356762256</v>
@@ -3265,7 +3265,7 @@
         <v>2015</v>
       </c>
       <c r="C177" t="n">
-        <v>3.402486249488287</v>
+        <v>0.6614914028629082</v>
       </c>
       <c r="D177" t="n">
         <v>13786.4567953114</v>
@@ -3281,7 +3281,7 @@
         <v>2015</v>
       </c>
       <c r="C178" t="n">
-        <v>3.66995152313216</v>
+        <v>0.6813586553550192</v>
       </c>
       <c r="D178" t="n">
         <v>14263.9645773495</v>
@@ -3297,7 +3297,7 @@
         <v>2015</v>
       </c>
       <c r="C179" t="n">
-        <v>2.275071453549166</v>
+        <v>0.4848363806358357</v>
       </c>
       <c r="D179" t="n">
         <v>9699.58490873216</v>
@@ -3313,7 +3313,7 @@
         <v>2015</v>
       </c>
       <c r="C180" t="n">
-        <v>2.40154160375941</v>
+        <v>0.3752058092155253</v>
       </c>
       <c r="D180" t="n">
         <v>9753.40056232226</v>
@@ -3329,7 +3329,7 @@
         <v>2015</v>
       </c>
       <c r="C181" t="n">
-        <v>2.733594146581648</v>
+        <v>0.5232541028215494</v>
       </c>
       <c r="D181" t="n">
         <v>3919.35121410276</v>
@@ -3345,7 +3345,7 @@
         <v>2015</v>
       </c>
       <c r="C182" t="n">
-        <v>3.655336237232363</v>
+        <v>0.6755144580799678</v>
       </c>
       <c r="D182" t="n">
         <v>6517.18961381857</v>
@@ -3361,7 +3361,7 @@
         <v>2015</v>
       </c>
       <c r="C183" t="n">
-        <v>2.835220393394165</v>
+        <v>0.5323526831526063</v>
       </c>
       <c r="D183" t="n">
         <v>882.307663457577</v>
@@ -3377,7 +3377,7 @@
         <v>2015</v>
       </c>
       <c r="C184" t="n">
-        <v>3.164309970476082</v>
+        <v>0.6768396644726665</v>
       </c>
       <c r="D184" t="n">
         <v>38630.7265886928</v>
@@ -3393,7 +3393,7 @@
         <v>2015</v>
       </c>
       <c r="C185" t="n">
-        <v>4.104255676028739</v>
+        <v>0.7999253665910202</v>
       </c>
       <c r="D185" t="n">
         <v>74809.9658049898</v>
@@ -3409,7 +3409,7 @@
         <v>2015</v>
       </c>
       <c r="C186" t="n">
-        <v>2.630419742793964</v>
+        <v>0.4639656626537997</v>
       </c>
       <c r="D186" t="n">
         <v>13669.5594424097</v>
@@ -3425,7 +3425,7 @@
         <v>2015</v>
       </c>
       <c r="C187" t="n">
-        <v>2.77156408557855</v>
+        <v>0.4709593857695674</v>
       </c>
       <c r="D187" t="n">
         <v>5861.38972416093</v>
@@ -3441,7 +3441,7 @@
         <v>2015</v>
       </c>
       <c r="C188" t="n">
-        <v>2.760484513025848</v>
+        <v>0.479678570848548</v>
       </c>
       <c r="D188" t="n">
         <v>6180.11879937394</v>
@@ -3457,7 +3457,7 @@
         <v>2015</v>
       </c>
       <c r="C189" t="n">
-        <v>2.590955550356593</v>
+        <v>0.4004694151753149</v>
       </c>
       <c r="D189" t="n">
         <v>2974.29692047629</v>
@@ -3473,7 +3473,7 @@
         <v>2015</v>
       </c>
       <c r="C190" t="n">
-        <v>3.617291666734704</v>
+        <v>0.7216617672233367</v>
       </c>
       <c r="D190" t="n">
         <v>12560.051419682</v>
@@ -3489,7 +3489,7 @@
         <v>2015</v>
       </c>
       <c r="C191" t="n">
-        <v>3.661960755676083</v>
+        <v>0.745977781024405</v>
       </c>
       <c r="D191" t="n">
         <v>19250.1065376852</v>
@@ -3505,7 +3505,7 @@
         <v>2015</v>
       </c>
       <c r="C192" t="n">
-        <v>3.574663382120997</v>
+        <v>0.7046729358749718</v>
       </c>
       <c r="D192" t="n">
         <v>8976.95523628605</v>
@@ -3521,7 +3521,7 @@
         <v>2015</v>
       </c>
       <c r="C193" t="n">
-        <v>3.666442745290637</v>
+        <v>0.4444071242151061</v>
       </c>
       <c r="D193" t="n">
         <v>9313.021484375</v>
@@ -3537,7 +3537,7 @@
         <v>2015</v>
       </c>
       <c r="C194" t="n">
-        <v>3.909154216628207</v>
+        <v>0.6697601949322403</v>
       </c>
       <c r="D194" t="n">
         <v>20442.3660631613</v>
@@ -3553,7 +3553,7 @@
         <v>2015</v>
       </c>
       <c r="C195" t="n">
-        <v>4.167351380313668</v>
+        <v>0.8341291155328505</v>
       </c>
       <c r="D195" t="n">
         <v>55645.6068614606</v>
@@ -3569,7 +3569,7 @@
         <v>2015</v>
       </c>
       <c r="C196" t="n">
-        <v>3.25505987849951</v>
+        <v>0.6773088890887049</v>
       </c>
       <c r="D196" t="n">
         <v>20890.1664304173</v>
@@ -3585,7 +3585,7 @@
         <v>2015</v>
       </c>
       <c r="C197" t="n">
-        <v>2.358246180422165</v>
+        <v>0.3366333954418674</v>
       </c>
       <c r="D197" t="n">
         <v>6204.92990145846</v>
@@ -3601,7 +3601,7 @@
         <v>2015</v>
       </c>
       <c r="C198" t="n">
-        <v>3.565262980046303</v>
+        <v>0.7065145184876082</v>
       </c>
       <c r="D198" t="n">
         <v>25754.36102944</v>
@@ -3617,7 +3617,7 @@
         <v>2015</v>
       </c>
       <c r="C199" t="n">
-        <v>3.849111071757019</v>
+        <v>0.7684782938272605</v>
       </c>
       <c r="D199" t="n">
         <v>51545.4836095322</v>
@@ -3633,7 +3633,7 @@
         <v>2015</v>
       </c>
       <c r="C200" t="n">
-        <v>3.264291731509997</v>
+        <v>0.6788475312571194</v>
       </c>
       <c r="D200" t="n">
         <v>83806.4476003837</v>
@@ -3649,7 +3649,7 @@
         <v>2015</v>
       </c>
       <c r="C201" t="n">
-        <v>4.06926092706489</v>
+        <v>0.6611685730520555</v>
       </c>
       <c r="D201" t="n">
         <v>5708.79414662172</v>
@@ -3665,7 +3665,7 @@
         <v>2015</v>
       </c>
       <c r="C202" t="n">
-        <v>3.658385049223427</v>
+        <v>0.644836499342282</v>
       </c>
       <c r="D202" t="n">
         <v>3960.92484913663</v>
@@ -3681,7 +3681,7 @@
         <v>2015</v>
       </c>
       <c r="C203" t="n">
-        <v>3.881632515373393</v>
+        <v>0.6762502726712983</v>
       </c>
       <c r="D203" t="n">
         <v>6208.2966545016</v>
@@ -3697,7 +3697,7 @@
         <v>2015</v>
       </c>
       <c r="C204" t="n">
-        <v>1.995534904000266</v>
+        <v>0.3158884008371269</v>
       </c>
       <c r="D204" t="n">
         <v>864.180059367602</v>
@@ -3713,7 +3713,7 @@
         <v>2015</v>
       </c>
       <c r="C205" t="n">
-        <v>3.805512781179766</v>
+        <v>0.5018390422620672</v>
       </c>
       <c r="D205" t="n">
         <v>2124.66259765625</v>
@@ -3729,7 +3729,7 @@
         <v>2015</v>
       </c>
       <c r="C206" t="n">
-        <v>3.674566785955545</v>
+        <v>0.6797420444213571</v>
       </c>
       <c r="D206" t="n">
         <v>41525.1389043587</v>
@@ -3745,7 +3745,7 @@
         <v>2015</v>
       </c>
       <c r="C207" t="n">
-        <v>3.636519710053346</v>
+        <v>0.5808650777832604</v>
       </c>
       <c r="D207" t="n">
         <v>56762.7294515989</v>
@@ -3761,7 +3761,7 @@
         <v>2015</v>
       </c>
       <c r="C208" t="n">
-        <v>3.395322781350735</v>
+        <v>0.6446192365645907</v>
       </c>
       <c r="D208" t="n">
         <v>16950.7533762432</v>
@@ -3777,7 +3777,7 @@
         <v>2016</v>
       </c>
       <c r="C209" t="n">
-        <v>3.084874721627445</v>
+        <v>0.5804356122205385</v>
       </c>
       <c r="D209" t="n">
         <v>4124.05538986272</v>
@@ -3793,7 +3793,7 @@
         <v>2016</v>
       </c>
       <c r="C210" t="n">
-        <v>3.557961058385236</v>
+        <v>0.6008729204879812</v>
       </c>
       <c r="D210" t="n">
         <v>3967.20065952107</v>
@@ -3809,7 +3809,7 @@
         <v>2016</v>
       </c>
       <c r="C211" t="n">
-        <v>3.075432978959982</v>
+        <v>0.5416917246536592</v>
       </c>
       <c r="D211" t="n">
         <v>12790.2640639201</v>
@@ -3825,7 +3825,7 @@
         <v>2016</v>
       </c>
       <c r="C212" t="n">
-        <v>3.352941725016653</v>
+        <v>0.5687585300515935</v>
       </c>
       <c r="D212" t="n">
         <v>3679.95234910427</v>
@@ -3841,7 +3841,7 @@
         <v>2016</v>
       </c>
       <c r="C213" t="n">
-        <v>3.215129029743534</v>
+        <v>0.6639809088627028</v>
       </c>
       <c r="D213" t="n">
         <v>49876.7123761245</v>
@@ -3857,7 +3857,7 @@
         <v>2016</v>
       </c>
       <c r="C214" t="n">
-        <v>3.443808442039105</v>
+        <v>0.7406347403398508</v>
       </c>
       <c r="D214" t="n">
         <v>45307.5878620442</v>
@@ -3873,7 +3873,7 @@
         <v>2016</v>
       </c>
       <c r="C215" t="n">
-        <v>3.62309848477934</v>
+        <v>0.5723321044347888</v>
       </c>
       <c r="D215" t="n">
         <v>3880.68626683773</v>
@@ -3889,7 +3889,7 @@
         <v>2016</v>
       </c>
       <c r="C216" t="n">
-        <v>3.587427837791715</v>
+        <v>0.603214677316091</v>
       </c>
       <c r="D216" t="n">
         <v>22867.1811196134</v>
@@ -3905,7 +3905,7 @@
         <v>2016</v>
       </c>
       <c r="C217" t="n">
-        <v>3.703995467463047</v>
+        <v>0.6373736878796752</v>
       </c>
       <c r="D217" t="n">
         <v>5039.77603167897</v>
@@ -3921,7 +3921,7 @@
         <v>2016</v>
       </c>
       <c r="C218" t="n">
-        <v>3.698092152221683</v>
+        <v>0.7425905556888828</v>
       </c>
       <c r="D218" t="n">
         <v>42012.6227191027</v>
@@ -3937,7 +3937,7 @@
         <v>2016</v>
       </c>
       <c r="C219" t="n">
-        <v>3.241858891182686</v>
+        <v>0.6381172835081798</v>
       </c>
       <c r="D219" t="n">
         <v>7574.19126408348</v>
@@ -3953,7 +3953,7 @@
         <v>2016</v>
       </c>
       <c r="C220" t="n">
-        <v>2.775944218738351</v>
+        <v>0.6113384249456004</v>
       </c>
       <c r="D220" t="n">
         <v>42315.6037056806</v>
@@ -3969,7 +3969,7 @@
         <v>2016</v>
       </c>
       <c r="C221" t="n">
-        <v>3.638820056279329</v>
+        <v>0.7114717222952701</v>
       </c>
       <c r="D221" t="n">
         <v>13785.6875977318</v>
@@ -3985,7 +3985,7 @@
         <v>2016</v>
       </c>
       <c r="C222" t="n">
-        <v>2.874800186642153</v>
+        <v>0.4935218536489919</v>
       </c>
       <c r="D222" t="n">
         <v>8094.39037512163</v>
@@ -4001,7 +4001,7 @@
         <v>2016</v>
       </c>
       <c r="C223" t="n">
-        <v>3.207761828392594</v>
+        <v>0.448124744608769</v>
       </c>
       <c r="D223" t="n">
         <v>5936.26102166829</v>
@@ -4017,7 +4017,7 @@
         <v>2016</v>
       </c>
       <c r="C224" t="n">
-        <v>3.697986431882195</v>
+        <v>0.7297260702674503</v>
       </c>
       <c r="D224" t="n">
         <v>12550.7088600004</v>
@@ -4033,7 +4033,7 @@
         <v>2016</v>
       </c>
       <c r="C225" t="n">
-        <v>3.918257784870815</v>
+        <v>0.6950093910036489</v>
       </c>
       <c r="D225" t="n">
         <v>24715.142578125</v>
@@ -4049,7 +4049,7 @@
         <v>2016</v>
       </c>
       <c r="C226" t="n">
-        <v>3.459658485020351</v>
+        <v>0.7388228341769101</v>
       </c>
       <c r="D226" t="n">
         <v>54663.9983719195</v>
@@ -4065,7 +4065,7 @@
         <v>2016</v>
       </c>
       <c r="C227" t="n">
-        <v>2.509239519564002</v>
+        <v>0.4248869565837229</v>
       </c>
       <c r="D227" t="n">
         <v>7191.06971254766</v>
@@ -4081,7 +4081,7 @@
         <v>2016</v>
       </c>
       <c r="C228" t="n">
-        <v>2.68986095446307</v>
+        <v>0.4861655890189391</v>
       </c>
       <c r="D228" t="n">
         <v>6079.08873612077</v>
@@ -4097,7 +4097,7 @@
         <v>2016</v>
       </c>
       <c r="C229" t="n">
-        <v>4.209732473926877</v>
+        <v>0.79840179806969</v>
       </c>
       <c r="D229" t="n">
         <v>18295.3429322119</v>
@@ -4113,7 +4113,7 @@
         <v>2016</v>
       </c>
       <c r="C230" t="n">
-        <v>3.909737471063259</v>
+        <v>0.7931097223954352</v>
       </c>
       <c r="D230" t="n">
         <v>43814.0265056977</v>
@@ -4129,7 +4129,7 @@
         <v>2016</v>
       </c>
       <c r="C231" t="n">
-        <v>3.564201088532505</v>
+        <v>0.6320602362353762</v>
       </c>
       <c r="D231" t="n">
         <v>37062.5335723839</v>
@@ -4145,7 +4145,7 @@
         <v>2016</v>
       </c>
       <c r="C232" t="n">
-        <v>4.096254133496325</v>
+        <v>0.6998381760691886</v>
       </c>
       <c r="D232" t="n">
         <v>4062.12697838612</v>
@@ -4161,7 +4161,7 @@
         <v>2016</v>
       </c>
       <c r="C233" t="n">
-        <v>3.15952282775093</v>
+        <v>0.6437505500859291</v>
       </c>
       <c r="D233" t="n">
         <v>42136.1207908003</v>
@@ -4177,7 +4177,7 @@
         <v>2016</v>
       </c>
       <c r="C234" t="n">
-        <v>3.993880185106277</v>
+        <v>0.7139509112895526</v>
       </c>
       <c r="D234" t="n">
         <v>17923.9668134721</v>
@@ -4193,7 +4193,7 @@
         <v>2016</v>
       </c>
       <c r="C235" t="n">
-        <v>2.412234772301378</v>
+        <v>0.3912477618104214</v>
       </c>
       <c r="D235" t="n">
         <v>4173.28130287658</v>
@@ -4209,7 +4209,7 @@
         <v>2016</v>
       </c>
       <c r="C236" t="n">
-        <v>1.28061440127975</v>
+        <v>0.2082969874006846</v>
       </c>
       <c r="D236" t="n">
         <v>2295.53623075587</v>
@@ -4225,7 +4225,7 @@
         <v>2016</v>
       </c>
       <c r="C237" t="n">
-        <v>3.14294376072856</v>
+        <v>0.6420151214780558</v>
       </c>
       <c r="D237" t="n">
         <v>13104.6995457458</v>
@@ -4241,7 +4241,7 @@
         <v>2016</v>
       </c>
       <c r="C238" t="n">
-        <v>3.10069438177809</v>
+        <v>0.4820102147088183</v>
       </c>
       <c r="D238" t="n">
         <v>1714.2795405846</v>
@@ -4257,7 +4257,7 @@
         <v>2016</v>
       </c>
       <c r="C239" t="n">
-        <v>2.748885560015497</v>
+        <v>0.550131149348249</v>
       </c>
       <c r="D239" t="n">
         <v>3558.81885174287</v>
@@ -4273,7 +4273,7 @@
         <v>2016</v>
       </c>
       <c r="C240" t="n">
-        <v>2.691020039234366</v>
+        <v>0.5851939873544086</v>
       </c>
       <c r="D240" t="n">
         <v>62895.9111239299</v>
@@ -4289,7 +4289,7 @@
         <v>2016</v>
       </c>
       <c r="C241" t="n">
-        <v>4.417889514491348</v>
+        <v>0.6501552753682907</v>
       </c>
       <c r="D241" t="n">
         <v>37690.4739511859</v>
@@ -4305,7 +4305,7 @@
         <v>2016</v>
       </c>
       <c r="C242" t="n">
-        <v>3.47674112746599</v>
+        <v>0.6609916267599192</v>
       </c>
       <c r="D242" t="n">
         <v>30960.7315088911</v>
@@ -4321,7 +4321,7 @@
         <v>2016</v>
       </c>
       <c r="C243" t="n">
-        <v>3.324816472660336</v>
+        <v>0.676609528588302</v>
       </c>
       <c r="D243" t="n">
         <v>39375.4731620781</v>
@@ -4337,7 +4337,7 @@
         <v>2016</v>
       </c>
       <c r="C244" t="n">
-        <v>3.049054334123321</v>
+        <v>0.5528828138235682</v>
       </c>
       <c r="D244" t="n">
         <v>7714.84184376024</v>
@@ -4353,7 +4353,7 @@
         <v>2016</v>
       </c>
       <c r="C245" t="n">
-        <v>2.592883763282535</v>
+        <v>0.4049119393069386</v>
       </c>
       <c r="D245" t="n">
         <v>1562.07661095478</v>
@@ -4369,7 +4369,7 @@
         <v>2016</v>
       </c>
       <c r="C246" t="n">
-        <v>3.568251203245031</v>
+        <v>0.6952566667964055</v>
       </c>
       <c r="D246" t="n">
         <v>14331.7515885053</v>
@@ -4385,7 +4385,7 @@
         <v>2016</v>
       </c>
       <c r="C247" t="n">
-        <v>3.734268321921852</v>
+        <v>0.7006582866101337</v>
       </c>
       <c r="D247" t="n">
         <v>15008.313244553</v>
@@ -4401,7 +4401,7 @@
         <v>2016</v>
       </c>
       <c r="C248" t="n">
-        <v>2.28302597581247</v>
+        <v>0.4836218352972822</v>
       </c>
       <c r="D248" t="n">
         <v>9555.64733478683</v>
@@ -4417,7 +4417,7 @@
         <v>2016</v>
       </c>
       <c r="C249" t="n">
-        <v>2.289320839548653</v>
+        <v>0.3618549463653373</v>
       </c>
       <c r="D249" t="n">
         <v>8875.08206876137</v>
@@ -4433,7 +4433,7 @@
         <v>2016</v>
       </c>
       <c r="C250" t="n">
-        <v>3.11985701028247</v>
+        <v>0.5833540375136765</v>
       </c>
       <c r="D250" t="n">
         <v>3690.7567775547</v>
@@ -4449,7 +4449,7 @@
         <v>2016</v>
       </c>
       <c r="C251" t="n">
-        <v>2.869528376854226</v>
+        <v>0.5489981347514837</v>
       </c>
       <c r="D251" t="n">
         <v>7033.43800629458</v>
@@ -4465,7 +4465,7 @@
         <v>2016</v>
       </c>
       <c r="C252" t="n">
-        <v>2.944178093509149</v>
+        <v>0.5336905250058928</v>
       </c>
       <c r="D252" t="n">
         <v>880.224893683469</v>
@@ -4481,7 +4481,7 @@
         <v>2016</v>
       </c>
       <c r="C253" t="n">
-        <v>3.186193954735165</v>
+        <v>0.6889631240077621</v>
       </c>
       <c r="D253" t="n">
         <v>40058.1961621466</v>
@@ -4497,7 +4497,7 @@
         <v>2016</v>
       </c>
       <c r="C254" t="n">
-        <v>4.053593917179686</v>
+        <v>0.8009843921575599</v>
       </c>
       <c r="D254" t="n">
         <v>70867.36099707489</v>
@@ -4513,7 +4513,7 @@
         <v>2016</v>
       </c>
       <c r="C255" t="n">
-        <v>2.41840374179862</v>
+        <v>0.4525705448389958</v>
       </c>
       <c r="D255" t="n">
         <v>14382.2323819969</v>
@@ -4529,7 +4529,7 @@
         <v>2016</v>
       </c>
       <c r="C256" t="n">
-        <v>2.60540640013674</v>
+        <v>0.4529051776863733</v>
       </c>
       <c r="D256" t="n">
         <v>5759.01833315657</v>
@@ -4545,7 +4545,7 @@
         <v>2016</v>
       </c>
       <c r="C257" t="n">
-        <v>2.573298326575461</v>
+        <v>0.4564609920791234</v>
       </c>
       <c r="D257" t="n">
         <v>6163.86117862599</v>
@@ -4561,7 +4561,7 @@
         <v>2016</v>
       </c>
       <c r="C258" t="n">
-        <v>2.64894757330447</v>
+        <v>0.4120291176473533</v>
       </c>
       <c r="D258" t="n">
         <v>3038.15204593606</v>
@@ -4577,7 +4577,7 @@
         <v>2016</v>
       </c>
       <c r="C259" t="n">
-        <v>3.673599237349712</v>
+        <v>0.7335409486024784</v>
       </c>
       <c r="D259" t="n">
         <v>12378.8117640735</v>
@@ -4593,7 +4593,7 @@
         <v>2016</v>
       </c>
       <c r="C260" t="n">
-        <v>3.695919942485268</v>
+        <v>0.7720332483792677</v>
       </c>
       <c r="D260" t="n">
         <v>19991.9724878811</v>
@@ -4609,7 +4609,7 @@
         <v>2016</v>
       </c>
       <c r="C261" t="n">
-        <v>3.683673738812725</v>
+        <v>0.7177482952834501</v>
       </c>
       <c r="D261" t="n">
         <v>9404.38048702324</v>
@@ -4625,7 +4625,7 @@
         <v>2016</v>
       </c>
       <c r="C262" t="n">
-        <v>4.184556531185675</v>
+        <v>0.530759421864279</v>
       </c>
       <c r="D262" t="n">
         <v>8704.89453125</v>
@@ -4641,7 +4641,7 @@
         <v>2016</v>
       </c>
       <c r="C263" t="n">
-        <v>4.194707531470684</v>
+        <v>0.6869562226997216</v>
       </c>
       <c r="D263" t="n">
         <v>19930.407543816</v>
@@ -4657,7 +4657,7 @@
         <v>2016</v>
       </c>
       <c r="C264" t="n">
-        <v>3.815414781153936</v>
+        <v>0.7739634433132545</v>
       </c>
       <c r="D264" t="n">
         <v>56895.6433372978</v>
@@ -4673,7 +4673,7 @@
         <v>2016</v>
       </c>
       <c r="C265" t="n">
-        <v>3.629530820724386</v>
+        <v>0.7481215293876031</v>
       </c>
       <c r="D265" t="n">
         <v>21678.3594670635</v>
@@ -4689,7 +4689,7 @@
         <v>2016</v>
       </c>
       <c r="C266" t="n">
-        <v>2.349050106485895</v>
+        <v>0.3558797111357958</v>
       </c>
       <c r="D266" t="n">
         <v>5735.06678717842</v>
@@ -4705,7 +4705,7 @@
         <v>2016</v>
       </c>
       <c r="C267" t="n">
-        <v>3.480716917507465</v>
+        <v>0.6916302776181507</v>
       </c>
       <c r="D267" t="n">
         <v>26537.1594894549</v>
@@ -4721,7 +4721,7 @@
         <v>2016</v>
       </c>
       <c r="C268" t="n">
-        <v>3.792694786621184</v>
+        <v>0.756987329116549</v>
       </c>
       <c r="D268" t="n">
         <v>51965.1571531985</v>
@@ -4737,7 +4737,7 @@
         <v>2016</v>
       </c>
       <c r="C269" t="n">
-        <v>3.536018172748779</v>
+        <v>0.7351054611313057</v>
       </c>
       <c r="D269" t="n">
         <v>82153.07454478891</v>
@@ -4753,7 +4753,7 @@
         <v>2016</v>
       </c>
       <c r="C270" t="n">
-        <v>3.450429445970407</v>
+        <v>0.5834648597001035</v>
       </c>
       <c r="D270" t="n">
         <v>5854.46385243079</v>
@@ -4769,7 +4769,7 @@
         <v>2016</v>
       </c>
       <c r="C271" t="n">
-        <v>3.663413529360207</v>
+        <v>0.655961179182508</v>
       </c>
       <c r="D271" t="n">
         <v>3796.10901086093</v>
@@ -4785,7 +4785,7 @@
         <v>2016</v>
       </c>
       <c r="C272" t="n">
-        <v>3.891064974658794</v>
+        <v>0.6776303906034611</v>
       </c>
       <c r="D272" t="n">
         <v>6163.25340597611</v>
@@ -4801,7 +4801,7 @@
         <v>2016</v>
       </c>
       <c r="C273" t="n">
-        <v>1.952669902476198</v>
+        <v>0.3286995229717952</v>
       </c>
       <c r="D273" t="n">
         <v>753.6844055389111</v>
@@ -4817,7 +4817,7 @@
         <v>2016</v>
       </c>
       <c r="C274" t="n">
-        <v>4.033670777047708</v>
+        <v>0.5256529061437853</v>
       </c>
       <c r="D274" t="n">
         <v>2187.7275390625</v>
@@ -4833,7 +4833,7 @@
         <v>2016</v>
       </c>
       <c r="C275" t="n">
-        <v>3.711556241362909</v>
+        <v>0.684711240638251</v>
       </c>
       <c r="D275" t="n">
         <v>41054.5395698941</v>
@@ -4849,7 +4849,7 @@
         <v>2016</v>
       </c>
       <c r="C276" t="n">
-        <v>3.707053551339301</v>
+        <v>0.5935188601324322</v>
       </c>
       <c r="D276" t="n">
         <v>57866.7449341091</v>
@@ -4865,7 +4865,7 @@
         <v>2016</v>
       </c>
       <c r="C277" t="n">
-        <v>3.319563604973337</v>
+        <v>0.6366795799313216</v>
       </c>
       <c r="D277" t="n">
         <v>16837.9403803049</v>
@@ -4881,7 +4881,7 @@
         <v>2017</v>
       </c>
       <c r="C278" t="n">
-        <v>3.116342301311902</v>
+        <v>0.5960096568537214</v>
       </c>
       <c r="D278" t="n">
         <v>4531.03220675893</v>
@@ -4897,7 +4897,7 @@
         <v>2017</v>
       </c>
       <c r="C279" t="n">
-        <v>3.643795419598311</v>
+        <v>0.6196741707756005</v>
       </c>
       <c r="D279" t="n">
         <v>4134.93609898195</v>
@@ -4913,7 +4913,7 @@
         <v>2017</v>
       </c>
       <c r="C280" t="n">
-        <v>3.019898922477594</v>
+        <v>0.5439519092316087</v>
       </c>
       <c r="D280" t="n">
         <v>14613.035714704</v>
@@ -4929,7 +4929,7 @@
         <v>2017</v>
       </c>
       <c r="C281" t="n">
-        <v>3.534576542404141</v>
+        <v>0.6070880159755541</v>
       </c>
       <c r="D281" t="n">
         <v>4041.99507231389</v>
@@ -4945,7 +4945,7 @@
         <v>2017</v>
       </c>
       <c r="C282" t="n">
-        <v>3.396092356706019</v>
+        <v>0.7007354208692934</v>
       </c>
       <c r="D282" t="n">
         <v>53934.1543741253</v>
@@ -4961,7 +4961,7 @@
         <v>2017</v>
       </c>
       <c r="C283" t="n">
-        <v>3.330271707623588</v>
+        <v>0.7167970837964889</v>
       </c>
       <c r="D283" t="n">
         <v>47429.1584564391</v>
@@ -4977,7 +4977,7 @@
         <v>2017</v>
       </c>
       <c r="C284" t="n">
-        <v>3.742719477232332</v>
+        <v>0.594385140184676</v>
       </c>
       <c r="D284" t="n">
         <v>4147.19861886412</v>
@@ -4993,7 +4993,7 @@
         <v>2017</v>
       </c>
       <c r="C285" t="n">
-        <v>3.48976418187235</v>
+        <v>0.5832949079669644</v>
       </c>
       <c r="D285" t="n">
         <v>24349.9098701325</v>
@@ -5009,7 +5009,7 @@
         <v>2017</v>
       </c>
       <c r="C286" t="n">
-        <v>3.835121770466733</v>
+        <v>0.6698171179670288</v>
       </c>
       <c r="D286" t="n">
         <v>5785.53497525452</v>
@@ -5025,7 +5025,7 @@
         <v>2017</v>
       </c>
       <c r="C287" t="n">
-        <v>3.576541336708836</v>
+        <v>0.7034274177997261</v>
       </c>
       <c r="D287" t="n">
         <v>44198.4823908695</v>
@@ -5041,7 +5041,7 @@
         <v>2017</v>
       </c>
       <c r="C288" t="n">
-        <v>2.989033995270959</v>
+        <v>0.6035786867666799</v>
       </c>
       <c r="D288" t="n">
         <v>8386.58920224077</v>
@@ -5057,7 +5057,7 @@
         <v>2017</v>
       </c>
       <c r="C289" t="n">
-        <v>2.805289580749905</v>
+        <v>0.6184171418153475</v>
       </c>
       <c r="D289" t="n">
         <v>45129.4292980922</v>
@@ -5073,7 +5073,7 @@
         <v>2017</v>
       </c>
       <c r="C290" t="n">
-        <v>3.510709270429189</v>
+        <v>0.6970192122647909</v>
       </c>
       <c r="D290" t="n">
         <v>15045.5278507601</v>
@@ -5089,7 +5089,7 @@
         <v>2017</v>
       </c>
       <c r="C291" t="n">
-        <v>3.008801801239676</v>
+        <v>0.521214202260325</v>
       </c>
       <c r="D291" t="n">
         <v>8817.04549566316</v>
@@ -5105,7 +5105,7 @@
         <v>2017</v>
       </c>
       <c r="C292" t="n">
-        <v>3.213300412368223</v>
+        <v>0.4308458384313898</v>
       </c>
       <c r="D292" t="n">
         <v>6449.97098726073</v>
@@ -5121,7 +5121,7 @@
         <v>2017</v>
       </c>
       <c r="C293" t="n">
-        <v>3.792361000447967</v>
+        <v>0.7446632911927934</v>
       </c>
       <c r="D293" t="n">
         <v>13562.1440493296</v>
@@ -5137,7 +5137,7 @@
         <v>2017</v>
       </c>
       <c r="C294" t="n">
-        <v>4.138295763971168</v>
+        <v>0.7363194361752894</v>
       </c>
       <c r="D294" t="n">
         <v>26697.005859375</v>
@@ -5153,7 +5153,7 @@
         <v>2017</v>
       </c>
       <c r="C295" t="n">
-        <v>3.53824773805246</v>
+        <v>0.7456672331544341</v>
       </c>
       <c r="D295" t="n">
         <v>57610.0981801135</v>
@@ -5169,7 +5169,7 @@
         <v>2017</v>
       </c>
       <c r="C296" t="n">
-        <v>2.571818375461065</v>
+        <v>0.4385538963490049</v>
       </c>
       <c r="D296" t="n">
         <v>7513.49795078555</v>
@@ -5185,7 +5185,7 @@
         <v>2017</v>
       </c>
       <c r="C297" t="n">
-        <v>2.670614921022951</v>
+        <v>0.509083529491187</v>
       </c>
       <c r="D297" t="n">
         <v>6246.40425217932</v>
@@ -5201,7 +5201,7 @@
         <v>2017</v>
       </c>
       <c r="C298" t="n">
-        <v>4.250424381896366</v>
+        <v>0.810650860208987</v>
       </c>
       <c r="D298" t="n">
         <v>20437.7653767361</v>
@@ -5217,7 +5217,7 @@
         <v>2017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.966975456662746</v>
+        <v>0.7932496394771416</v>
       </c>
       <c r="D299" t="n">
         <v>46412.1364777173</v>
@@ -5233,7 +5233,7 @@
         <v>2017</v>
       </c>
       <c r="C300" t="n">
-        <v>3.613643732244952</v>
+        <v>0.6327285806155137</v>
       </c>
       <c r="D300" t="n">
         <v>38781.049487084</v>
@@ -5249,7 +5249,7 @@
         <v>2017</v>
       </c>
       <c r="C301" t="n">
-        <v>4.116872400977199</v>
+        <v>0.7046639186813849</v>
       </c>
       <c r="D301" t="n">
         <v>4356.9285949639</v>
@@ -5265,7 +5265,7 @@
         <v>2017</v>
       </c>
       <c r="C302" t="n">
-        <v>3.233988537375031</v>
+        <v>0.6501969661642253</v>
       </c>
       <c r="D302" t="n">
         <v>44652.5891722723</v>
@@ -5281,7 +5281,7 @@
         <v>2017</v>
       </c>
       <c r="C303" t="n">
-        <v>3.882081622175191</v>
+        <v>0.6955479200026933</v>
       </c>
       <c r="D303" t="n">
         <v>18582.0893411633</v>
@@ -5297,7 +5297,7 @@
         <v>2017</v>
       </c>
       <c r="C304" t="n">
-        <v>2.478483137540468</v>
+        <v>0.4107108546769658</v>
       </c>
       <c r="D304" t="n">
         <v>4454.02466102158</v>
@@ -5313,7 +5313,7 @@
         <v>2017</v>
       </c>
       <c r="C305" t="n">
-        <v>1.31198527003205</v>
+        <v>0.2219115348245447</v>
       </c>
       <c r="D305" t="n">
         <v>2403.30609417895</v>
@@ -5329,7 +5329,7 @@
         <v>2017</v>
       </c>
       <c r="C306" t="n">
-        <v>2.889339517466689</v>
+        <v>0.5901224981278955</v>
       </c>
       <c r="D306" t="n">
         <v>14621.2395956755</v>
@@ -5345,7 +5345,7 @@
         <v>2017</v>
       </c>
       <c r="C307" t="n">
-        <v>3.188641058268768</v>
+        <v>0.5037940468362636</v>
       </c>
       <c r="D307" t="n">
         <v>1957.96981368095</v>
@@ -5361,7 +5361,7 @@
         <v>2017</v>
       </c>
       <c r="C308" t="n">
-        <v>2.752171125980279</v>
+        <v>0.5519899041808451</v>
       </c>
       <c r="D308" t="n">
         <v>3839.78507463674</v>
@@ -5377,7 +5377,7 @@
         <v>2017</v>
       </c>
       <c r="C309" t="n">
-        <v>2.63539681407878</v>
+        <v>0.5879953089288752</v>
       </c>
       <c r="D309" t="n">
         <v>69970.9489145768</v>
@@ -5393,7 +5393,7 @@
         <v>2017</v>
       </c>
       <c r="C310" t="n">
-        <v>4.376104046242036</v>
+        <v>0.650098436353662</v>
       </c>
       <c r="D310" t="n">
         <v>41114.7817082553</v>
@@ -5409,7 +5409,7 @@
         <v>2017</v>
       </c>
       <c r="C311" t="n">
-        <v>3.488091606295524</v>
+        <v>0.6704305740174826</v>
       </c>
       <c r="D311" t="n">
         <v>32406.7203150137</v>
@@ -5425,7 +5425,7 @@
         <v>2017</v>
       </c>
       <c r="C312" t="n">
-        <v>3.663215726541838</v>
+        <v>0.7485910711517423</v>
       </c>
       <c r="D312" t="n">
         <v>38834.0529341227</v>
@@ -5441,7 +5441,7 @@
         <v>2017</v>
       </c>
       <c r="C313" t="n">
-        <v>2.972854894435905</v>
+        <v>0.5478718136329458</v>
       </c>
       <c r="D313" t="n">
         <v>9247.580686597959</v>
@@ -5457,7 +5457,7 @@
         <v>2017</v>
       </c>
       <c r="C314" t="n">
-        <v>2.60444895915135</v>
+        <v>0.4211732994056884</v>
       </c>
       <c r="D314" t="n">
         <v>1675.98842952557</v>
@@ -5473,7 +5473,7 @@
         <v>2017</v>
       </c>
       <c r="C315" t="n">
-        <v>3.565321077008129</v>
+        <v>0.699802064704093</v>
       </c>
       <c r="D315" t="n">
         <v>15695.115154106</v>
@@ -5489,7 +5489,7 @@
         <v>2017</v>
       </c>
       <c r="C316" t="n">
-        <v>3.870469850399882</v>
+        <v>0.7213465197392815</v>
       </c>
       <c r="D316" t="n">
         <v>16885.4073948375</v>
@@ -5505,7 +5505,7 @@
         <v>2017</v>
       </c>
       <c r="C317" t="n">
-        <v>2.392319223645445</v>
+        <v>0.5002645432422943</v>
       </c>
       <c r="D317" t="n">
         <v>9979.704756841949</v>
@@ -5521,7 +5521,7 @@
         <v>2017</v>
       </c>
       <c r="C318" t="n">
-        <v>2.38766745505147</v>
+        <v>0.3613463662579201</v>
       </c>
       <c r="D318" t="n">
         <v>9434.37817948243</v>
@@ -5537,7 +5537,7 @@
         <v>2017</v>
       </c>
       <c r="C319" t="n">
-        <v>2.875020626855656</v>
+        <v>0.5563159707213351</v>
       </c>
       <c r="D319" t="n">
         <v>3708.24822113607</v>
@@ -5553,7 +5553,7 @@
         <v>2017</v>
       </c>
       <c r="C320" t="n">
-        <v>3.406705385612035</v>
+        <v>0.6391375748005312</v>
       </c>
       <c r="D320" t="n">
         <v>7803.36257940837</v>
@@ -5569,7 +5569,7 @@
         <v>2017</v>
       </c>
       <c r="C321" t="n">
-        <v>2.988994515133383</v>
+        <v>0.5430139182234769</v>
       </c>
       <c r="D321" t="n">
         <v>1027.96547448918</v>
@@ -5585,7 +5585,7 @@
         <v>2017</v>
       </c>
       <c r="C322" t="n">
-        <v>3.0565558875255</v>
+        <v>0.6718799043716801</v>
       </c>
       <c r="D322" t="n">
         <v>42910.9728362488</v>
@@ -5601,7 +5601,7 @@
         <v>2017</v>
       </c>
       <c r="C323" t="n">
-        <v>3.845076657315796</v>
+        <v>0.7674917125015531</v>
       </c>
       <c r="D323" t="n">
         <v>76131.8384032764</v>
@@ -5617,7 +5617,7 @@
         <v>2017</v>
       </c>
       <c r="C324" t="n">
-        <v>2.49459671901777</v>
+        <v>0.4757099499223051</v>
       </c>
       <c r="D324" t="n">
         <v>15185.9724813803</v>
@@ -5633,7 +5633,7 @@
         <v>2017</v>
       </c>
       <c r="C325" t="n">
-        <v>2.797072254185495</v>
+        <v>0.492947183666689</v>
       </c>
       <c r="D325" t="n">
         <v>6136.05835430284</v>
@@ -5649,7 +5649,7 @@
         <v>2017</v>
       </c>
       <c r="C326" t="n">
-        <v>2.300234269701675</v>
+        <v>0.4194439949239494</v>
       </c>
       <c r="D326" t="n">
         <v>6676.3077877014</v>
@@ -5665,7 +5665,7 @@
         <v>2017</v>
       </c>
       <c r="C327" t="n">
-        <v>2.677994967071208</v>
+        <v>0.4099098159090946</v>
       </c>
       <c r="D327" t="n">
         <v>3077.43443152814</v>
@@ -5681,7 +5681,7 @@
         <v>2017</v>
       </c>
       <c r="C328" t="n">
-        <v>3.444353524279061</v>
+        <v>0.6815716467093152</v>
       </c>
       <c r="D328" t="n">
         <v>13815.499946254</v>
@@ -5697,7 +5697,7 @@
         <v>2017</v>
       </c>
       <c r="C329" t="n">
-        <v>3.497854061942617</v>
+        <v>0.7496423436571028</v>
       </c>
       <c r="D329" t="n">
         <v>21490.4298631042</v>
@@ -5713,7 +5713,7 @@
         <v>2017</v>
       </c>
       <c r="C330" t="n">
-        <v>3.717322540239464</v>
+        <v>0.7353164388199703</v>
       </c>
       <c r="D330" t="n">
         <v>10727.9717457361</v>
@@ -5729,7 +5729,7 @@
         <v>2017</v>
       </c>
       <c r="C331" t="n">
-        <v>4.213072919167913</v>
+        <v>0.5355121531946521</v>
       </c>
       <c r="D331" t="n">
         <v>10720.33203125</v>
@@ -5745,7 +5745,7 @@
         <v>2017</v>
       </c>
       <c r="C332" t="n">
-        <v>4.166992216430372</v>
+        <v>0.6564962453046582</v>
       </c>
       <c r="D332" t="n">
         <v>20910.4829617971</v>
@@ -5761,7 +5761,7 @@
         <v>2017</v>
       </c>
       <c r="C333" t="n">
-        <v>4.00994387344662</v>
+        <v>0.8112939631099814</v>
       </c>
       <c r="D333" t="n">
         <v>61164.8973569773</v>
@@ -5777,7 +5777,7 @@
         <v>2017</v>
       </c>
       <c r="C334" t="n">
-        <v>3.725295846538229</v>
+        <v>0.7738578912213531</v>
       </c>
       <c r="D334" t="n">
         <v>23514.0254604149</v>
@@ -5793,7 +5793,7 @@
         <v>2017</v>
       </c>
       <c r="C335" t="n">
-        <v>2.424626682693322</v>
+        <v>0.3669796445879075</v>
       </c>
       <c r="D335" t="n">
         <v>6734.47515312493</v>
@@ -5809,7 +5809,7 @@
         <v>2017</v>
       </c>
       <c r="C336" t="n">
-        <v>3.473581992165319</v>
+        <v>0.7018897843708917</v>
       </c>
       <c r="D336" t="n">
         <v>28185.3213671972</v>
@@ -5825,7 +5825,7 @@
         <v>2017</v>
       </c>
       <c r="C337" t="n">
-        <v>3.758948176024973</v>
+        <v>0.7396210800659488</v>
       </c>
       <c r="D337" t="n">
         <v>53791.5087298403</v>
@@ -5841,7 +5841,7 @@
         <v>2017</v>
       </c>
       <c r="C338" t="n">
-        <v>3.735917967347153</v>
+        <v>0.7717665631027069</v>
       </c>
       <c r="D338" t="n">
         <v>82254.37692697671</v>
@@ -5857,7 +5857,7 @@
         <v>2017</v>
       </c>
       <c r="C339" t="n">
-        <v>3.719654704837774</v>
+        <v>0.6267003935831958</v>
       </c>
       <c r="D339" t="n">
         <v>6436.78964911639</v>
@@ -5873,7 +5873,7 @@
         <v>2017</v>
       </c>
       <c r="C340" t="n">
-        <v>3.683340713069232</v>
+        <v>0.6604935943583</v>
       </c>
       <c r="D340" t="n">
         <v>3569.71883883673</v>
@@ -5889,7 +5889,7 @@
         <v>2017</v>
       </c>
       <c r="C341" t="n">
-        <v>3.918957780067575</v>
+        <v>0.677470670909981</v>
       </c>
       <c r="D341" t="n">
         <v>6354.53282979422</v>
@@ -5905,7 +5905,7 @@
         <v>2017</v>
       </c>
       <c r="C342" t="n">
-        <v>1.957152860553284</v>
+        <v>0.3131150853247926</v>
       </c>
       <c r="D342" t="n">
         <v>766.177603973574</v>
@@ -5921,7 +5921,7 @@
         <v>2017</v>
       </c>
       <c r="C343" t="n">
-        <v>3.84568706902849</v>
+        <v>0.5120203391333247</v>
       </c>
       <c r="D343" t="n">
         <v>2638.32543945313</v>
@@ -5937,7 +5937,7 @@
         <v>2017</v>
       </c>
       <c r="C344" t="n">
-        <v>3.788990149107026</v>
+        <v>0.6831922321532599</v>
       </c>
       <c r="D344" t="n">
         <v>43063.9674785596</v>
@@ -5953,7 +5953,7 @@
         <v>2017</v>
       </c>
       <c r="C345" t="n">
-        <v>3.713362230919705</v>
+        <v>0.5896677967804562</v>
       </c>
       <c r="D345" t="n">
         <v>59907.754260885</v>
@@ -5969,7 +5969,7 @@
         <v>2017</v>
       </c>
       <c r="C346" t="n">
-        <v>3.292055310211193</v>
+        <v>0.6395131678156096</v>
       </c>
       <c r="D346" t="n">
         <v>18995.3970195554</v>
@@ -5985,7 +5985,7 @@
         <v>2018</v>
       </c>
       <c r="C347" t="n">
-        <v>3.134884613766976</v>
+        <v>0.600465417009505</v>
       </c>
       <c r="D347" t="n">
         <v>5287.66081699731</v>
@@ -6001,7 +6001,7 @@
         <v>2018</v>
       </c>
       <c r="C348" t="n">
-        <v>3.587080309926143</v>
+        <v>0.6129536920267236</v>
       </c>
       <c r="D348" t="n">
         <v>4171.79530903532</v>
@@ -6017,7 +6017,7 @@
         <v>2018</v>
       </c>
       <c r="C349" t="n">
-        <v>3.237523305016377</v>
+        <v>0.5867046436010472</v>
       </c>
       <c r="D349" t="n">
         <v>11795.1628852236</v>
@@ -6033,7 +6033,7 @@
         <v>2018</v>
       </c>
       <c r="C350" t="n">
-        <v>3.947161044597574</v>
+        <v>0.6777033882103256</v>
       </c>
       <c r="D350" t="n">
         <v>4391.92327364082</v>
@@ -6049,7 +6049,7 @@
         <v>2018</v>
       </c>
       <c r="C351" t="n">
-        <v>3.258382039082102</v>
+        <v>0.670860504798838</v>
       </c>
       <c r="D351" t="n">
         <v>57206.9906696898</v>
@@ -6065,7 +6065,7 @@
         <v>2018</v>
       </c>
       <c r="C352" t="n">
-        <v>3.885870876318785</v>
+        <v>0.8100655282187359</v>
       </c>
       <c r="D352" t="n">
         <v>51466.5565633624</v>
@@ -6081,7 +6081,7 @@
         <v>2018</v>
       </c>
       <c r="C353" t="n">
-        <v>3.565227820127987</v>
+        <v>0.5800775747902354</v>
       </c>
       <c r="D353" t="n">
         <v>4739.79524170312</v>
@@ -6097,7 +6097,7 @@
         <v>2018</v>
       </c>
       <c r="C354" t="n">
-        <v>3.435891599567888</v>
+        <v>0.576323269207746</v>
       </c>
       <c r="D354" t="n">
         <v>25415.8466249472</v>
@@ -6113,7 +6113,7 @@
         <v>2018</v>
       </c>
       <c r="C355" t="n">
-        <v>3.680359274125811</v>
+        <v>0.6389525786779993</v>
       </c>
       <c r="D355" t="n">
         <v>6360.05206042843</v>
@@ -6129,7 +6129,7 @@
         <v>2018</v>
       </c>
       <c r="C356" t="n">
-        <v>3.762402598425268</v>
+        <v>0.7435949455647536</v>
       </c>
       <c r="D356" t="n">
         <v>47544.9811472749</v>
@@ -6145,7 +6145,7 @@
         <v>2018</v>
       </c>
       <c r="C357" t="n">
-        <v>3.001719521030166</v>
+        <v>0.6027690300851355</v>
       </c>
       <c r="D357" t="n">
         <v>9451.850869563999</v>
@@ -6161,7 +6161,7 @@
         <v>2018</v>
       </c>
       <c r="C358" t="n">
-        <v>2.783577528426931</v>
+        <v>0.6054451850007648</v>
       </c>
       <c r="D358" t="n">
         <v>46547.7951820036</v>
@@ -6177,7 +6177,7 @@
         <v>2018</v>
       </c>
       <c r="C359" t="n">
-        <v>3.50779082664051</v>
+        <v>0.6784583600500801</v>
       </c>
       <c r="D359" t="n">
         <v>15795.7081412484</v>
@@ -6193,7 +6193,7 @@
         <v>2018</v>
       </c>
       <c r="C360" t="n">
-        <v>2.931383925867904</v>
+        <v>0.518532957104066</v>
       </c>
       <c r="D360" t="n">
         <v>9905.4061175104</v>
@@ -6209,7 +6209,7 @@
         <v>2018</v>
       </c>
       <c r="C361" t="n">
-        <v>3.208896133724537</v>
+        <v>0.4382130498882723</v>
       </c>
       <c r="D361" t="n">
         <v>6782.0379203319</v>
@@ -6225,7 +6225,7 @@
         <v>2018</v>
       </c>
       <c r="C362" t="n">
-        <v>3.754769732151709</v>
+        <v>0.7353000998956098</v>
       </c>
       <c r="D362" t="n">
         <v>15003.1406807658</v>
@@ -6241,7 +6241,7 @@
         <v>2018</v>
       </c>
       <c r="C363" t="n">
-        <v>3.263569931019727</v>
+        <v>0.6028046896301864</v>
       </c>
       <c r="D363" t="n">
         <v>29419.88671875</v>
@@ -6257,7 +6257,7 @@
         <v>2018</v>
       </c>
       <c r="C364" t="n">
-        <v>3.567678505665834</v>
+        <v>0.7442946129400592</v>
       </c>
       <c r="D364" t="n">
         <v>61591.9288698958</v>
@@ -6273,7 +6273,7 @@
         <v>2018</v>
       </c>
       <c r="C365" t="n">
-        <v>2.645715857310416</v>
+        <v>0.4616124501690804</v>
       </c>
       <c r="D365" t="n">
         <v>7947.1593538657</v>
@@ -6289,7 +6289,7 @@
         <v>2018</v>
       </c>
       <c r="C366" t="n">
-        <v>2.687805842482976</v>
+        <v>0.5052108218608324</v>
       </c>
       <c r="D366" t="n">
         <v>6321.34940071717</v>
@@ -6305,7 +6305,7 @@
         <v>2018</v>
       </c>
       <c r="C367" t="n">
-        <v>4.234641621982329</v>
+        <v>0.8071128164679023</v>
       </c>
       <c r="D367" t="n">
         <v>23165.8494786433</v>
@@ -6321,7 +6321,7 @@
         <v>2018</v>
       </c>
       <c r="C368" t="n">
-        <v>3.681352409658056</v>
+        <v>0.742172159734778</v>
       </c>
       <c r="D368" t="n">
         <v>49987.6261584959</v>
@@ -6337,7 +6337,7 @@
         <v>2018</v>
       </c>
       <c r="C369" t="n">
-        <v>3.319547029664233</v>
+        <v>0.6002119457410338</v>
       </c>
       <c r="D369" t="n">
         <v>41557.8548588869</v>
@@ -6353,7 +6353,7 @@
         <v>2018</v>
       </c>
       <c r="C370" t="n">
-        <v>3.996934512967726</v>
+        <v>0.7085369378545752</v>
       </c>
       <c r="D370" t="n">
         <v>4722.0424231414</v>
@@ -6369,7 +6369,7 @@
         <v>2018</v>
       </c>
       <c r="C371" t="n">
-        <v>3.125046205901801</v>
+        <v>0.6311627720272395</v>
       </c>
       <c r="D371" t="n">
         <v>47939.2782884496</v>
@@ -6385,7 +6385,7 @@
         <v>2018</v>
       </c>
       <c r="C372" t="n">
-        <v>3.924065183269481</v>
+        <v>0.69916846636069</v>
       </c>
       <c r="D372" t="n">
         <v>19756.9904562547</v>
@@ -6401,7 +6401,7 @@
         <v>2018</v>
       </c>
       <c r="C373" t="n">
-        <v>2.485000318838285</v>
+        <v>0.4215977176832385</v>
       </c>
       <c r="D373" t="n">
         <v>4485.75238352401</v>
@@ -6417,7 +6417,7 @@
         <v>2018</v>
       </c>
       <c r="C374" t="n">
-        <v>1.295514925012818</v>
+        <v>0.2122444848890381</v>
       </c>
       <c r="D374" t="n">
         <v>2457.68601233921</v>
@@ -6433,7 +6433,7 @@
         <v>2018</v>
       </c>
       <c r="C375" t="n">
-        <v>3.260711185258969</v>
+        <v>0.6495273174190392</v>
       </c>
       <c r="D375" t="n">
         <v>16425.2050299693</v>
@@ -6449,7 +6449,7 @@
         <v>2018</v>
       </c>
       <c r="C376" t="n">
-        <v>3.06443921009244</v>
+        <v>0.4949796201044154</v>
       </c>
       <c r="D376" t="n">
         <v>1974.37773014516</v>
@@ -6465,7 +6465,7 @@
         <v>2018</v>
       </c>
       <c r="C377" t="n">
-        <v>2.806308891794612</v>
+        <v>0.5571351011067127</v>
       </c>
       <c r="D377" t="n">
         <v>3902.66167542693</v>
@@ -6481,7 +6481,7 @@
         <v>2018</v>
       </c>
       <c r="C378" t="n">
-        <v>2.593083711425177</v>
+        <v>0.5854551571957198</v>
       </c>
       <c r="D378" t="n">
         <v>79250.38785176699</v>
@@ -6497,7 +6497,7 @@
         <v>2018</v>
       </c>
       <c r="C379" t="n">
-        <v>4.235546498773347</v>
+        <v>0.6256533075286951</v>
       </c>
       <c r="D379" t="n">
         <v>42406.8454263606</v>
@@ -6513,7 +6513,7 @@
         <v>2018</v>
       </c>
       <c r="C380" t="n">
-        <v>3.531596034515118</v>
+        <v>0.6695237225580071</v>
       </c>
       <c r="D380" t="n">
         <v>34622.1696664735</v>
@@ -6529,7 +6529,7 @@
         <v>2018</v>
       </c>
       <c r="C381" t="n">
-        <v>3.71955257522467</v>
+        <v>0.7498454030731301</v>
       </c>
       <c r="D381" t="n">
         <v>39751.1330982711</v>
@@ -6545,7 +6545,7 @@
         <v>2018</v>
       </c>
       <c r="C382" t="n">
-        <v>2.939882053069748</v>
+        <v>0.543140557758889</v>
       </c>
       <c r="D382" t="n">
         <v>9812.62542188505</v>
@@ -6561,7 +6561,7 @@
         <v>2018</v>
       </c>
       <c r="C383" t="n">
-        <v>2.878103989539054</v>
+        <v>0.4717630444756826</v>
       </c>
       <c r="D383" t="n">
         <v>1845.78341285836</v>
@@ -6577,7 +6577,7 @@
         <v>2018</v>
       </c>
       <c r="C384" t="n">
-        <v>3.616798453311876</v>
+        <v>0.7056088227347328</v>
       </c>
       <c r="D384" t="n">
         <v>17865.0310947639</v>
@@ -6593,7 +6593,7 @@
         <v>2018</v>
       </c>
       <c r="C385" t="n">
-        <v>3.8701085929924</v>
+        <v>0.7239826586883463</v>
       </c>
       <c r="D385" t="n">
         <v>19186.3595916406</v>
@@ -6609,7 +6609,7 @@
         <v>2018</v>
       </c>
       <c r="C386" t="n">
-        <v>2.440722693752434</v>
+        <v>0.5174354906049907</v>
       </c>
       <c r="D386" t="n">
         <v>11073.9785943006</v>
@@ -6625,7 +6625,7 @@
         <v>2018</v>
       </c>
       <c r="C387" t="n">
-        <v>2.326623091318074</v>
+        <v>0.3448993736224227</v>
       </c>
       <c r="D387" t="n">
         <v>9857.00748742213</v>
@@ -6641,7 +6641,7 @@
         <v>2018</v>
       </c>
       <c r="C388" t="n">
-        <v>2.804352322514521</v>
+        <v>0.5455400204354186</v>
       </c>
       <c r="D388" t="n">
         <v>4165.0228208175</v>
@@ -6657,7 +6657,7 @@
         <v>2018</v>
       </c>
       <c r="C389" t="n">
-        <v>3.032484529948313</v>
+        <v>0.5814389127571864</v>
       </c>
       <c r="D389" t="n">
         <v>8850.378404186829</v>
@@ -6673,7 +6673,7 @@
         <v>2018</v>
       </c>
       <c r="C390" t="n">
-        <v>2.881925297766754</v>
+        <v>0.5210688823078511</v>
       </c>
       <c r="D390" t="n">
         <v>1161.5343496196</v>
@@ -6689,7 +6689,7 @@
         <v>2018</v>
       </c>
       <c r="C391" t="n">
-        <v>2.91696561163205</v>
+        <v>0.652827601938675</v>
       </c>
       <c r="D391" t="n">
         <v>43236.8866923404</v>
@@ -6705,7 +6705,7 @@
         <v>2018</v>
       </c>
       <c r="C392" t="n">
-        <v>3.848075926549348</v>
+        <v>0.7653864907796193</v>
       </c>
       <c r="D392" t="n">
         <v>82792.84271133041</v>
@@ -6721,7 +6721,7 @@
         <v>2018</v>
       </c>
       <c r="C393" t="n">
-        <v>2.6952556243983</v>
+        <v>0.5089022316998962</v>
       </c>
       <c r="D393" t="n">
         <v>16156.0742942819</v>
@@ -6737,7 +6737,7 @@
         <v>2018</v>
       </c>
       <c r="C394" t="n">
-        <v>2.742550381893243</v>
+        <v>0.4797113612154262</v>
       </c>
       <c r="D394" t="n">
         <v>6242.96150239538</v>
@@ -6753,7 +6753,7 @@
         <v>2018</v>
       </c>
       <c r="C395" t="n">
-        <v>2.559983350233446</v>
+        <v>0.4665952978790188</v>
       </c>
       <c r="D395" t="n">
         <v>6912.10462268352</v>
@@ -6769,7 +6769,7 @@
         <v>2018</v>
       </c>
       <c r="C396" t="n">
-        <v>2.596755720400722</v>
+        <v>0.3948210375092172</v>
       </c>
       <c r="D396" t="n">
         <v>3194.67270414955</v>
@@ -6785,7 +6785,7 @@
         <v>2018</v>
       </c>
       <c r="C397" t="n">
-        <v>3.267245629512598</v>
+        <v>0.6452268765176556</v>
       </c>
       <c r="D397" t="n">
         <v>15504.5089372145</v>
@@ -6801,7 +6801,7 @@
         <v>2018</v>
       </c>
       <c r="C398" t="n">
-        <v>3.615106722289405</v>
+        <v>0.7606918847127777</v>
       </c>
       <c r="D398" t="n">
         <v>23562.5545228187</v>
@@ -6817,7 +6817,7 @@
         <v>2018</v>
       </c>
       <c r="C399" t="n">
-        <v>3.649921061388654</v>
+        <v>0.7281143954184421</v>
       </c>
       <c r="D399" t="n">
         <v>12494.4246355892</v>
@@ -6833,7 +6833,7 @@
         <v>2018</v>
       </c>
       <c r="C400" t="n">
-        <v>4.161243148413576</v>
+        <v>0.5268738580689294</v>
       </c>
       <c r="D400" t="n">
         <v>11287.3544921875</v>
@@ -6849,7 +6849,7 @@
         <v>2018</v>
       </c>
       <c r="C401" t="n">
-        <v>3.936256394913267</v>
+        <v>0.6201942921785053</v>
       </c>
       <c r="D401" t="n">
         <v>24175.5831237449</v>
@@ -6865,7 +6865,7 @@
         <v>2018</v>
       </c>
       <c r="C402" t="n">
-        <v>4.052068889034964</v>
+        <v>0.8139206763449585</v>
       </c>
       <c r="D402" t="n">
         <v>66836.5385122528</v>
@@ -6881,7 +6881,7 @@
         <v>2018</v>
       </c>
       <c r="C403" t="n">
-        <v>3.640497189125093</v>
+        <v>0.7549611924713633</v>
       </c>
       <c r="D403" t="n">
         <v>26123.7471277906</v>
@@ -6897,7 +6897,7 @@
         <v>2018</v>
       </c>
       <c r="C404" t="n">
-        <v>2.399158668080502</v>
+        <v>0.3703807644579702</v>
       </c>
       <c r="D404" t="n">
         <v>7048.50811239074</v>
@@ -6913,7 +6913,7 @@
         <v>2018</v>
       </c>
       <c r="C405" t="n">
-        <v>3.360554937859434</v>
+        <v>0.6506526725601098</v>
       </c>
       <c r="D405" t="n">
         <v>30379.7211126417</v>
@@ -6929,7 +6929,7 @@
         <v>2018</v>
       </c>
       <c r="C406" t="n">
-        <v>3.682058460576542</v>
+        <v>0.7271012018648311</v>
       </c>
       <c r="D406" t="n">
         <v>54589.0603860606</v>
@@ -6945,7 +6945,7 @@
         <v>2018</v>
       </c>
       <c r="C407" t="n">
-        <v>3.699647699779442</v>
+        <v>0.7568169978156003</v>
       </c>
       <c r="D407" t="n">
         <v>85216.6429514169</v>
@@ -6961,7 +6961,7 @@
         <v>2018</v>
       </c>
       <c r="C408" t="n">
-        <v>3.714483170980073</v>
+        <v>0.632227678586504</v>
       </c>
       <c r="D408" t="n">
         <v>7124.55886705161</v>
@@ -6977,7 +6977,7 @@
         <v>2018</v>
       </c>
       <c r="C409" t="n">
-        <v>3.611934963647998</v>
+        <v>0.6502498171489109</v>
       </c>
       <c r="D409" t="n">
         <v>3577.1694604526</v>
@@ -6993,7 +6993,7 @@
         <v>2018</v>
       </c>
       <c r="C410" t="n">
-        <v>3.871488787216236</v>
+        <v>0.6698275857184663</v>
       </c>
       <c r="D410" t="n">
         <v>6721.34954037245</v>
@@ -7009,7 +7009,7 @@
         <v>2018</v>
       </c>
       <c r="C411" t="n">
-        <v>1.823223723598212</v>
+        <v>0.3103217066686225</v>
       </c>
       <c r="D411" t="n">
         <v>793.12808227851</v>
@@ -7025,7 +7025,7 @@
         <v>2018</v>
       </c>
       <c r="C412" t="n">
-        <v>3.947995898674602</v>
+        <v>0.5542103241217429</v>
       </c>
       <c r="D412" t="n">
         <v>3096.5625</v>
@@ -7041,7 +7041,7 @@
         <v>2018</v>
       </c>
       <c r="C413" t="n">
-        <v>3.874290287521481</v>
+        <v>0.7036115039058747</v>
       </c>
       <c r="D413" t="n">
         <v>46722.2687193126</v>
@@ -7057,7 +7057,7 @@
         <v>2018</v>
       </c>
       <c r="C414" t="n">
-        <v>3.684382646173275</v>
+        <v>0.5800118390363918</v>
       </c>
       <c r="D414" t="n">
         <v>62823.309438197</v>
@@ -7073,7 +7073,7 @@
         <v>2018</v>
       </c>
       <c r="C415" t="n">
-        <v>3.013665313207125</v>
+        <v>0.5859783524624973</v>
       </c>
       <c r="D415" t="n">
         <v>19026.04961089</v>
@@ -7089,7 +7089,7 @@
         <v>2019</v>
       </c>
       <c r="C416" t="n">
-        <v>3.216712000652431</v>
+        <v>0.6204621011188395</v>
       </c>
       <c r="D416" t="n">
         <v>5396.21422690995</v>
@@ -7105,7 +7105,7 @@
         <v>2019</v>
       </c>
       <c r="C417" t="n">
-        <v>3.628612008683703</v>
+        <v>0.6128494761947586</v>
       </c>
       <c r="D417" t="n">
         <v>4021.98360796603</v>
@@ -7121,7 +7121,7 @@
         <v>2019</v>
       </c>
       <c r="C418" t="n">
-        <v>2.828011916926722</v>
+        <v>0.5105609087133762</v>
       </c>
       <c r="D418" t="n">
         <v>9963.674230696261</v>
@@ -7137,7 +7137,7 @@
         <v>2019</v>
       </c>
       <c r="C419" t="n">
-        <v>3.861596012576034</v>
+        <v>0.6638013556313592</v>
       </c>
       <c r="D419" t="n">
         <v>4828.50488860645</v>
@@ -7153,7 +7153,7 @@
         <v>2019</v>
       </c>
       <c r="C420" t="n">
-        <v>3.212588045421343</v>
+        <v>0.65832696379918</v>
       </c>
       <c r="D420" t="n">
         <v>54941.0657202842</v>
@@ -7169,7 +7169,7 @@
         <v>2019</v>
       </c>
       <c r="C421" t="n">
-        <v>3.329155427144987</v>
+        <v>0.7149602479585079</v>
       </c>
       <c r="D421" t="n">
         <v>50070.4033482892</v>
@@ -7185,7 +7185,7 @@
         <v>2019</v>
       </c>
       <c r="C422" t="n">
-        <v>3.597332944152886</v>
+        <v>0.580026871163528</v>
       </c>
       <c r="D422" t="n">
         <v>4805.75371765917</v>
@@ -7201,7 +7201,7 @@
         <v>2019</v>
       </c>
       <c r="C423" t="n">
-        <v>3.580702092581401</v>
+        <v>0.6008240861373042</v>
       </c>
       <c r="D423" t="n">
         <v>25869.1129129041</v>
@@ -7217,7 +7217,7 @@
         <v>2019</v>
       </c>
       <c r="C424" t="n">
-        <v>3.866060200690883</v>
+        <v>0.6738046462430933</v>
       </c>
       <c r="D424" t="n">
         <v>6837.76723174438</v>
@@ -7233,7 +7233,7 @@
         <v>2019</v>
       </c>
       <c r="C425" t="n">
-        <v>3.774373930138498</v>
+        <v>0.7379848806123086</v>
       </c>
       <c r="D425" t="n">
         <v>46641.7116578097</v>
@@ -7249,7 +7249,7 @@
         <v>2019</v>
       </c>
       <c r="C426" t="n">
-        <v>3.067536967986145</v>
+        <v>0.6139497640246268</v>
       </c>
       <c r="D426" t="n">
         <v>9878.76887237072</v>
@@ -7265,7 +7265,7 @@
         <v>2019</v>
       </c>
       <c r="C427" t="n">
-        <v>2.828335772067728</v>
+        <v>0.6084263323816583</v>
       </c>
       <c r="D427" t="n">
         <v>46374.1527517191</v>
@@ -7281,7 +7281,7 @@
         <v>2019</v>
       </c>
       <c r="C428" t="n">
-        <v>3.446630312603086</v>
+        <v>0.6661892271846894</v>
       </c>
       <c r="D428" t="n">
         <v>14627.14501648</v>
@@ -7297,7 +7297,7 @@
         <v>2019</v>
       </c>
       <c r="C429" t="n">
-        <v>2.824574245734564</v>
+        <v>0.5091462126729324</v>
       </c>
       <c r="D429" t="n">
         <v>10143.8602060373</v>
@@ -7313,7 +7313,7 @@
         <v>2019</v>
       </c>
       <c r="C430" t="n">
-        <v>3.125171625844507</v>
+        <v>0.4185050352838487</v>
       </c>
       <c r="D430" t="n">
         <v>6436.50921529531</v>
@@ -7329,7 +7329,7 @@
         <v>2019</v>
       </c>
       <c r="C431" t="n">
-        <v>3.803514514231906</v>
+        <v>0.7414948432810751</v>
       </c>
       <c r="D431" t="n">
         <v>15086.2117396215</v>
@@ -7345,7 +7345,7 @@
         <v>2019</v>
       </c>
       <c r="C432" t="n">
-        <v>3.546332910421789</v>
+        <v>0.6435807375955507</v>
       </c>
       <c r="D432" t="n">
         <v>29417.921875</v>
@@ -7361,7 +7361,7 @@
         <v>2019</v>
       </c>
       <c r="C433" t="n">
-        <v>3.487188905459392</v>
+        <v>0.7313665010782486</v>
       </c>
       <c r="D433" t="n">
         <v>59592.9806886454</v>
@@ -7377,7 +7377,7 @@
         <v>2019</v>
       </c>
       <c r="C434" t="n">
-        <v>2.635560519365525</v>
+        <v>0.4594621067629409</v>
       </c>
       <c r="D434" t="n">
         <v>8173.34464573914</v>
@@ -7393,7 +7393,7 @@
         <v>2019</v>
       </c>
       <c r="C435" t="n">
-        <v>2.746911674690188</v>
+        <v>0.4958657504955027</v>
       </c>
       <c r="D435" t="n">
         <v>6233.25816692363</v>
@@ -7409,7 +7409,7 @@
         <v>2019</v>
       </c>
       <c r="C436" t="n">
-        <v>4.275380556391138</v>
+        <v>0.814078577580341</v>
       </c>
       <c r="D436" t="n">
         <v>23424.4847073513</v>
@@ -7425,7 +7425,7 @@
         <v>2019</v>
       </c>
       <c r="C437" t="n">
-        <v>3.897809600344347</v>
+        <v>0.7853251690809601</v>
       </c>
       <c r="D437" t="n">
         <v>48629.8582283024</v>
@@ -7441,7 +7441,7 @@
         <v>2019</v>
       </c>
       <c r="C438" t="n">
-        <v>3.329526623729306</v>
+        <v>0.5944833935171737</v>
       </c>
       <c r="D438" t="n">
         <v>40494.8982936269</v>
@@ -7457,7 +7457,7 @@
         <v>2019</v>
       </c>
       <c r="C439" t="n">
-        <v>3.963929199620264</v>
+        <v>0.6854023413508521</v>
       </c>
       <c r="D439" t="n">
         <v>4696.15058555612</v>
@@ -7473,7 +7473,7 @@
         <v>2019</v>
       </c>
       <c r="C440" t="n">
-        <v>3.317697727294993</v>
+        <v>0.6610304292966402</v>
       </c>
       <c r="D440" t="n">
         <v>46793.6867615995</v>
@@ -7489,7 +7489,7 @@
         <v>2019</v>
       </c>
       <c r="C441" t="n">
-        <v>3.927646697178892</v>
+        <v>0.7062912845466502</v>
       </c>
       <c r="D441" t="n">
         <v>19144.2843875557</v>
@@ -7505,7 +7505,7 @@
         <v>2019</v>
       </c>
       <c r="C442" t="n">
-        <v>2.625355485589685</v>
+        <v>0.4215659816050149</v>
       </c>
       <c r="D442" t="n">
         <v>4647.80734000427</v>
@@ -7521,7 +7521,7 @@
         <v>2019</v>
       </c>
       <c r="C443" t="n">
-        <v>1.322087435642918</v>
+        <v>0.1962738318664121</v>
       </c>
       <c r="D443" t="n">
         <v>2519.36619342175</v>
@@ -7537,7 +7537,7 @@
         <v>2019</v>
       </c>
       <c r="C444" t="n">
-        <v>3.261999058813963</v>
+        <v>0.6488853650211823</v>
       </c>
       <c r="D444" t="n">
         <v>16786.2136399075</v>
@@ -7553,7 +7553,7 @@
         <v>2019</v>
       </c>
       <c r="C445" t="n">
-        <v>3.121525962290161</v>
+        <v>0.4756415324355655</v>
       </c>
       <c r="D445" t="n">
         <v>2050.16378973235</v>
@@ -7569,7 +7569,7 @@
         <v>2019</v>
       </c>
       <c r="C446" t="n">
-        <v>2.811823024856437</v>
+        <v>0.540522692694928</v>
       </c>
       <c r="D446" t="n">
         <v>4151.22755454135</v>
@@ -7585,7 +7585,7 @@
         <v>2019</v>
       </c>
       <c r="C447" t="n">
-        <v>2.582271509237052</v>
+        <v>0.5827354872297442</v>
       </c>
       <c r="D447" t="n">
         <v>80927.0746710651</v>
@@ -7601,7 +7601,7 @@
         <v>2019</v>
       </c>
       <c r="C448" t="n">
-        <v>4.383452886345255</v>
+        <v>0.6506091510912126</v>
       </c>
       <c r="D448" t="n">
         <v>44452.2325623093</v>
@@ -7617,7 +7617,7 @@
         <v>2019</v>
       </c>
       <c r="C449" t="n">
-        <v>3.480200807377297</v>
+        <v>0.6628617507244989</v>
       </c>
       <c r="D449" t="n">
         <v>33673.7509627414</v>
@@ -7633,7 +7633,7 @@
         <v>2019</v>
       </c>
       <c r="C450" t="n">
-        <v>3.733434045438648</v>
+        <v>0.7540571893912897</v>
       </c>
       <c r="D450" t="n">
         <v>40415.9567649547</v>
@@ -7649,7 +7649,7 @@
         <v>2019</v>
       </c>
       <c r="C451" t="n">
-        <v>2.315428560369475</v>
+        <v>0.4365781607349797</v>
       </c>
       <c r="D451" t="n">
         <v>9812.59553636276</v>
@@ -7665,7 +7665,7 @@
         <v>2019</v>
       </c>
       <c r="C452" t="n">
-        <v>2.942363391528699</v>
+        <v>0.4720437302379482</v>
       </c>
       <c r="D452" t="n">
         <v>1970.0800629654</v>
@@ -7681,7 +7681,7 @@
         <v>2019</v>
       </c>
       <c r="C453" t="n">
-        <v>3.61116871917767</v>
+        <v>0.6897402410750662</v>
       </c>
       <c r="D453" t="n">
         <v>17945.2222164981</v>
@@ -7697,7 +7697,7 @@
         <v>2019</v>
       </c>
       <c r="C454" t="n">
-        <v>3.912736051144269</v>
+        <v>0.7351193081873444</v>
       </c>
       <c r="D454" t="n">
         <v>19598.4008704357</v>
@@ -7713,7 +7713,7 @@
         <v>2019</v>
       </c>
       <c r="C455" t="n">
-        <v>2.598790492570171</v>
+        <v>0.5497984154283619</v>
       </c>
       <c r="D455" t="n">
         <v>11132.1034532052</v>
@@ -7729,7 +7729,7 @@
         <v>2019</v>
       </c>
       <c r="C456" t="n">
-        <v>2.451132715151025</v>
+        <v>0.3339429946127129</v>
       </c>
       <c r="D456" t="n">
         <v>10145.1526279593</v>
@@ -7745,7 +7745,7 @@
         <v>2019</v>
       </c>
       <c r="C457" t="n">
-        <v>2.89398166862402</v>
+        <v>0.5510171467908721</v>
       </c>
       <c r="D457" t="n">
         <v>4394.94715010112</v>
@@ -7761,7 +7761,7 @@
         <v>2019</v>
       </c>
       <c r="C458" t="n">
-        <v>2.9918610160516</v>
+        <v>0.5717074757392397</v>
       </c>
       <c r="D458" t="n">
         <v>8909.653336011779</v>
@@ -7777,7 +7777,7 @@
         <v>2019</v>
       </c>
       <c r="C459" t="n">
-        <v>2.973085263827333</v>
+        <v>0.531709496833175</v>
       </c>
       <c r="D459" t="n">
         <v>1185.68231813605</v>
@@ -7793,7 +7793,7 @@
         <v>2019</v>
       </c>
       <c r="C460" t="n">
-        <v>2.78239364018201</v>
+        <v>0.630398940030335</v>
       </c>
       <c r="D460" t="n">
         <v>42796.4305818389</v>
@@ -7809,7 +7809,7 @@
         <v>2019</v>
       </c>
       <c r="C461" t="n">
-        <v>3.806315149390121</v>
+        <v>0.7534094272552557</v>
       </c>
       <c r="D461" t="n">
         <v>76430.5889473338</v>
@@ -7825,7 +7825,7 @@
         <v>2019</v>
       </c>
       <c r="C462" t="n">
-        <v>2.560417461901209</v>
+        <v>0.4826284995424573</v>
       </c>
       <c r="D462" t="n">
         <v>16472.8317548406</v>
@@ -7841,7 +7841,7 @@
         <v>2019</v>
       </c>
       <c r="C463" t="n">
-        <v>2.481005865807966</v>
+        <v>0.4278107419444253</v>
       </c>
       <c r="D463" t="n">
         <v>5807.83881414187</v>
@@ -7857,7 +7857,7 @@
         <v>2019</v>
       </c>
       <c r="C464" t="n">
-        <v>2.488583054343279</v>
+        <v>0.4464136740403781</v>
       </c>
       <c r="D464" t="n">
         <v>6955.88176963678</v>
@@ -7873,7 +7873,7 @@
         <v>2019</v>
       </c>
       <c r="C465" t="n">
-        <v>2.476345190489367</v>
+        <v>0.391175376866073</v>
       </c>
       <c r="D465" t="n">
         <v>3413.8490672059</v>
@@ -7889,7 +7889,7 @@
         <v>2019</v>
       </c>
       <c r="C466" t="n">
-        <v>3.703558007433413</v>
+        <v>0.7194482200941209</v>
       </c>
       <c r="D466" t="n">
         <v>15700.0135796738</v>
@@ -7905,7 +7905,7 @@
         <v>2019</v>
       </c>
       <c r="C467" t="n">
-        <v>3.585226136895385</v>
+        <v>0.75342994537482</v>
       </c>
       <c r="D467" t="n">
         <v>23330.8172889316</v>
@@ -7921,7 +7921,7 @@
         <v>2019</v>
       </c>
       <c r="C468" t="n">
-        <v>3.667579676953228</v>
+        <v>0.7259097441386692</v>
       </c>
       <c r="D468" t="n">
         <v>12957.9991142218</v>
@@ -7937,7 +7937,7 @@
         <v>2019</v>
       </c>
       <c r="C469" t="n">
-        <v>4.186233248288938</v>
+        <v>0.5310388747148229</v>
       </c>
       <c r="D469" t="n">
         <v>11536.2587890625</v>
@@ -7953,7 +7953,7 @@
         <v>2019</v>
       </c>
       <c r="C470" t="n">
-        <v>3.973077157686445</v>
+        <v>0.6308663949679428</v>
       </c>
       <c r="D470" t="n">
         <v>23405.7061087736</v>
@@ -7969,7 +7969,7 @@
         <v>2019</v>
       </c>
       <c r="C471" t="n">
-        <v>3.339662078832104</v>
+        <v>0.6988662387279096</v>
       </c>
       <c r="D471" t="n">
         <v>66070.47066792269</v>
@@ -7985,7 +7985,7 @@
         <v>2019</v>
       </c>
       <c r="C472" t="n">
-        <v>3.648872827539567</v>
+        <v>0.7571353702464936</v>
       </c>
       <c r="D472" t="n">
         <v>26016.0786839136</v>
@@ -8001,7 +8001,7 @@
         <v>2019</v>
       </c>
       <c r="C473" t="n">
-        <v>2.422934512506878</v>
+        <v>0.3410278059565335</v>
       </c>
       <c r="D473" t="n">
         <v>6688.77474649645</v>
@@ -8017,7 +8017,7 @@
         <v>2019</v>
       </c>
       <c r="C474" t="n">
-        <v>3.469636338052659</v>
+        <v>0.6681717129077661</v>
       </c>
       <c r="D474" t="n">
         <v>29581.5185513293</v>
@@ -8033,7 +8033,7 @@
         <v>2019</v>
       </c>
       <c r="C475" t="n">
-        <v>3.665409367108332</v>
+        <v>0.724032874316035</v>
       </c>
       <c r="D475" t="n">
         <v>51939.4297445291</v>
@@ -8049,7 +8049,7 @@
         <v>2019</v>
       </c>
       <c r="C476" t="n">
-        <v>3.584634588544221</v>
+        <v>0.7383481889997944</v>
       </c>
       <c r="D476" t="n">
         <v>84121.9310304414</v>
@@ -8065,7 +8065,7 @@
         <v>2019</v>
       </c>
       <c r="C477" t="n">
-        <v>3.716497017739053</v>
+        <v>0.6256451258521317</v>
       </c>
       <c r="D477" t="n">
         <v>7628.57608699366</v>
@@ -8081,7 +8081,7 @@
         <v>2019</v>
       </c>
       <c r="C478" t="n">
-        <v>3.253226352551235</v>
+        <v>0.5809249308124113</v>
       </c>
       <c r="D478" t="n">
         <v>3477.84427052074</v>
@@ -8097,7 +8097,7 @@
         <v>2019</v>
       </c>
       <c r="C479" t="n">
-        <v>3.902403536339578</v>
+        <v>0.6709393099286501</v>
       </c>
       <c r="D479" t="n">
         <v>7180.4595520094</v>
@@ -8113,7 +8113,7 @@
         <v>2019</v>
       </c>
       <c r="C480" t="n">
-        <v>1.963060470230088</v>
+        <v>0.3138770817386847</v>
       </c>
       <c r="D480" t="n">
         <v>823.0247328299459</v>
@@ -8129,7 +8129,7 @@
         <v>2019</v>
       </c>
       <c r="C481" t="n">
-        <v>3.964599031816299</v>
+        <v>0.5609348554710667</v>
       </c>
       <c r="D481" t="n">
         <v>3661.45776367188</v>
@@ -8145,7 +8145,7 @@
         <v>2019</v>
       </c>
       <c r="C482" t="n">
-        <v>3.961598735717376</v>
+        <v>0.7138018094882497</v>
       </c>
       <c r="D482" t="n">
         <v>45376.1708390447</v>
@@ -8161,7 +8161,7 @@
         <v>2019</v>
       </c>
       <c r="C483" t="n">
-        <v>3.73465382153737</v>
+        <v>0.5753042564515145</v>
       </c>
       <c r="D483" t="n">
         <v>65120.3946628653</v>
@@ -8177,7 +8177,7 @@
         <v>2019</v>
       </c>
       <c r="C484" t="n">
-        <v>3.100168015906077</v>
+        <v>0.5934623460853564</v>
       </c>
       <c r="D484" t="n">
         <v>18098.361548609</v>
@@ -8193,7 +8193,7 @@
         <v>2020</v>
       </c>
       <c r="C485" t="n">
-        <v>3.279847265388625</v>
+        <v>0.6205243724101316</v>
       </c>
       <c r="D485" t="n">
         <v>5343.0377039956</v>
@@ -8209,7 +8209,7 @@
         <v>2020</v>
       </c>
       <c r="C486" t="n">
-        <v>3.532972355920611</v>
+        <v>0.6023031336554246</v>
       </c>
       <c r="D486" t="n">
         <v>3354.15730265114</v>
@@ -8225,7 +8225,7 @@
         <v>2020</v>
       </c>
       <c r="C487" t="n">
-        <v>2.859186522398184</v>
+        <v>0.5212950588514969</v>
       </c>
       <c r="D487" t="n">
         <v>8496.428156755001</v>
@@ -8241,7 +8241,7 @@
         <v>2020</v>
       </c>
       <c r="C488" t="n">
-        <v>4.059281920257327</v>
+        <v>0.7204066358323613</v>
       </c>
       <c r="D488" t="n">
         <v>4505.86774552638</v>
@@ -8257,7 +8257,7 @@
         <v>2020</v>
       </c>
       <c r="C489" t="n">
-        <v>3.119161183087004</v>
+        <v>0.6494496346924714</v>
       </c>
       <c r="D489" t="n">
         <v>51722.0690001531</v>
@@ -8273,7 +8273,7 @@
         <v>2020</v>
       </c>
       <c r="C490" t="n">
-        <v>3.482479545720713</v>
+        <v>0.7470799242867855</v>
       </c>
       <c r="D490" t="n">
         <v>48809.2268762235</v>
@@ -8289,7 +8289,7 @@
         <v>2020</v>
       </c>
       <c r="C491" t="n">
-        <v>3.482022812139686</v>
+        <v>0.6005035307264823</v>
       </c>
       <c r="D491" t="n">
         <v>4229.91064904503</v>
@@ -8305,7 +8305,7 @@
         <v>2020</v>
       </c>
       <c r="C492" t="n">
-        <v>4.403130845855152</v>
+        <v>0.7489573294367017</v>
       </c>
       <c r="D492" t="n">
         <v>23433.1872362574</v>
@@ -8321,7 +8321,7 @@
         <v>2020</v>
       </c>
       <c r="C493" t="n">
-        <v>3.912061282925491</v>
+        <v>0.6830284811386942</v>
       </c>
       <c r="D493" t="n">
         <v>6542.8645398436</v>
@@ -8337,7 +8337,7 @@
         <v>2020</v>
       </c>
       <c r="C494" t="n">
-        <v>3.708109204788853</v>
+        <v>0.7287977269330671</v>
       </c>
       <c r="D494" t="n">
         <v>45517.9038182019</v>
@@ -8353,7 +8353,7 @@
         <v>2020</v>
       </c>
       <c r="C495" t="n">
-        <v>2.907367937361182</v>
+        <v>0.5910001002492908</v>
       </c>
       <c r="D495" t="n">
         <v>10153.4766003869</v>
@@ -8369,7 +8369,7 @@
         <v>2020</v>
       </c>
       <c r="C496" t="n">
-        <v>2.763881726975592</v>
+        <v>0.6003648058252863</v>
       </c>
       <c r="D496" t="n">
         <v>43349.677855557</v>
@@ -8385,7 +8385,7 @@
         <v>2020</v>
       </c>
       <c r="C497" t="n">
-        <v>3.140542376045262</v>
+        <v>0.5983920780476956</v>
       </c>
       <c r="D497" t="n">
         <v>13165.3863429858</v>
@@ -8401,7 +8401,7 @@
         <v>2020</v>
       </c>
       <c r="C498" t="n">
-        <v>3.081908010779685</v>
+        <v>0.5575109842527541</v>
       </c>
       <c r="D498" t="n">
         <v>10408.7191247747</v>
@@ -8417,7 +8417,7 @@
         <v>2020</v>
       </c>
       <c r="C499" t="n">
-        <v>3.091781081274584</v>
+        <v>0.405240778874033</v>
       </c>
       <c r="D499" t="n">
         <v>5304.28912886637</v>
@@ -8433,7 +8433,7 @@
         <v>2020</v>
       </c>
       <c r="C500" t="n">
-        <v>3.797663529168438</v>
+        <v>0.7529475388187223</v>
       </c>
       <c r="D500" t="n">
         <v>14236.5352454642</v>
@@ -8449,7 +8449,7 @@
         <v>2020</v>
       </c>
       <c r="C501" t="n">
-        <v>3.691962910354871</v>
+        <v>0.6581016136538278</v>
       </c>
       <c r="D501" t="n">
         <v>28035.984375</v>
@@ -8465,7 +8465,7 @@
         <v>2020</v>
       </c>
       <c r="C502" t="n">
-        <v>3.941305421036633</v>
+        <v>0.8101669281036818</v>
       </c>
       <c r="D502" t="n">
         <v>60915.4243995462</v>
@@ -8481,7 +8481,7 @@
         <v>2020</v>
       </c>
       <c r="C503" t="n">
-        <v>2.335999030834016</v>
+        <v>0.4169150130066098</v>
       </c>
       <c r="D503" t="n">
         <v>7167.91493205787</v>
@@ -8497,7 +8497,7 @@
         <v>2020</v>
       </c>
       <c r="C504" t="n">
-        <v>2.76130650474819</v>
+        <v>0.4783946363041159</v>
       </c>
       <c r="D504" t="n">
         <v>5645.19928965332</v>
@@ -8513,7 +8513,7 @@
         <v>2020</v>
       </c>
       <c r="C505" t="n">
-        <v>3.981342169394626</v>
+        <v>0.7638464114843819</v>
       </c>
       <c r="D505" t="n">
         <v>23595.2436836437</v>
@@ -8529,7 +8529,7 @@
         <v>2020</v>
       </c>
       <c r="C506" t="n">
-        <v>3.897625841282728</v>
+        <v>0.7875135128851571</v>
       </c>
       <c r="D506" t="n">
         <v>49169.719338849</v>
@@ -8545,7 +8545,7 @@
         <v>2020</v>
       </c>
       <c r="C507" t="n">
-        <v>3.358227507335497</v>
+        <v>0.5901802582762995</v>
       </c>
       <c r="D507" t="n">
         <v>39055.2829280747</v>
@@ -8561,7 +8561,7 @@
         <v>2020</v>
       </c>
       <c r="C508" t="n">
-        <v>3.812272936432642</v>
+        <v>0.6586199151605499</v>
       </c>
       <c r="D508" t="n">
         <v>4255.74299321254</v>
@@ -8577,7 +8577,7 @@
         <v>2020</v>
       </c>
       <c r="C509" t="n">
-        <v>3.226575179259746</v>
+        <v>0.6451056298947107</v>
       </c>
       <c r="D509" t="n">
         <v>46772.8253507537</v>
@@ -8593,7 +8593,7 @@
         <v>2020</v>
       </c>
       <c r="C510" t="n">
-        <v>3.945585401315781</v>
+        <v>0.7162881076709156</v>
       </c>
       <c r="D510" t="n">
         <v>17658.9473011189</v>
@@ -8609,7 +8609,7 @@
         <v>2020</v>
       </c>
       <c r="C511" t="n">
-        <v>2.735206233561583</v>
+        <v>0.4398611944704283</v>
       </c>
       <c r="D511" t="n">
         <v>4609.89725752869</v>
@@ -8625,7 +8625,7 @@
         <v>2020</v>
       </c>
       <c r="C512" t="n">
-        <v>1.308731992141662</v>
+        <v>0.1813160663336121</v>
       </c>
       <c r="D512" t="n">
         <v>2354.12148010105</v>
@@ -8641,7 +8641,7 @@
         <v>2020</v>
       </c>
       <c r="C513" t="n">
-        <v>2.876685663513999</v>
+        <v>0.5969191244218031</v>
       </c>
       <c r="D513" t="n">
         <v>16125.6094085407</v>
@@ -8657,7 +8657,7 @@
         <v>2020</v>
       </c>
       <c r="C514" t="n">
-        <v>3.053821427581406</v>
+        <v>0.4555247685867725</v>
       </c>
       <c r="D514" t="n">
         <v>1913.21972103493</v>
@@ -8673,7 +8673,7 @@
         <v>2020</v>
       </c>
       <c r="C515" t="n">
-        <v>2.833103277802989</v>
+        <v>0.545162718483533</v>
       </c>
       <c r="D515" t="n">
         <v>3895.61815205095</v>
@@ -8689,7 +8689,7 @@
         <v>2020</v>
       </c>
       <c r="C516" t="n">
-        <v>2.687046902376743</v>
+        <v>0.5987726027383193</v>
       </c>
       <c r="D516" t="n">
         <v>85420.19085560821</v>
@@ -8705,7 +8705,7 @@
         <v>2020</v>
       </c>
       <c r="C517" t="n">
-        <v>4.43302879316332</v>
+        <v>0.6463259238379453</v>
       </c>
       <c r="D517" t="n">
         <v>44846.7915954816</v>
@@ -8721,7 +8721,7 @@
         <v>2020</v>
       </c>
       <c r="C518" t="n">
-        <v>3.53951996028744</v>
+        <v>0.6804426918800643</v>
       </c>
       <c r="D518" t="n">
         <v>31918.6934933773</v>
@@ -8737,7 +8737,7 @@
         <v>2020</v>
       </c>
       <c r="C519" t="n">
-        <v>3.146005324214187</v>
+        <v>0.6580835424603677</v>
       </c>
       <c r="D519" t="n">
         <v>39986.9286287091</v>
@@ -8753,7 +8753,7 @@
         <v>2020</v>
       </c>
       <c r="C520" t="n">
-        <v>2.73298784880417</v>
+        <v>0.5040601017675966</v>
       </c>
       <c r="D520" t="n">
         <v>9121.636401678639</v>
@@ -8769,7 +8769,7 @@
         <v>2020</v>
       </c>
       <c r="C521" t="n">
-        <v>2.693560132685288</v>
+        <v>0.4282176998136178</v>
       </c>
       <c r="D521" t="n">
         <v>1936.25075166045</v>
@@ -8785,7 +8785,7 @@
         <v>2020</v>
       </c>
       <c r="C522" t="n">
-        <v>3.671960649887689</v>
+        <v>0.7026970046792378</v>
       </c>
       <c r="D522" t="n">
         <v>18207.1396408628</v>
@@ -8801,7 +8801,7 @@
         <v>2020</v>
       </c>
       <c r="C523" t="n">
-        <v>3.660864628744819</v>
+        <v>0.7028371776792097</v>
       </c>
       <c r="D523" t="n">
         <v>20363.9244050084</v>
@@ -8817,7 +8817,7 @@
         <v>2020</v>
       </c>
       <c r="C524" t="n">
-        <v>2.825934238484578</v>
+        <v>0.6022062580509202</v>
       </c>
       <c r="D524" t="n">
         <v>10160.8293465592</v>
@@ -8833,7 +8833,7 @@
         <v>2020</v>
       </c>
       <c r="C525" t="n">
-        <v>2.535699857282435</v>
+        <v>0.3326365379789769</v>
       </c>
       <c r="D525" t="n">
         <v>8654.997325169579</v>
@@ -8849,7 +8849,7 @@
         <v>2020</v>
       </c>
       <c r="C526" t="n">
-        <v>3.045745512445997</v>
+        <v>0.5753580194825441</v>
       </c>
       <c r="D526" t="n">
         <v>4041.17414513165</v>
@@ -8865,7 +8865,7 @@
         <v>2020</v>
       </c>
       <c r="C527" t="n">
-        <v>3.202496128391274</v>
+        <v>0.604196090127068</v>
       </c>
       <c r="D527" t="n">
         <v>7677.36914105517</v>
@@ -8881,7 +8881,7 @@
         <v>2020</v>
       </c>
       <c r="C528" t="n">
-        <v>2.9749327572187</v>
+        <v>0.5279255807156868</v>
       </c>
       <c r="D528" t="n">
         <v>1139.18989202387</v>
@@ -8897,7 +8897,7 @@
         <v>2020</v>
       </c>
       <c r="C529" t="n">
-        <v>3.098394644692289</v>
+        <v>0.6796293479985429</v>
       </c>
       <c r="D529" t="n">
         <v>41760.5947839997</v>
@@ -8913,7 +8913,7 @@
         <v>2020</v>
       </c>
       <c r="C530" t="n">
-        <v>3.812655527869593</v>
+        <v>0.7539992890091933</v>
       </c>
       <c r="D530" t="n">
         <v>68340.0181033702</v>
@@ -8929,7 +8929,7 @@
         <v>2020</v>
       </c>
       <c r="C531" t="n">
-        <v>2.612078936822188</v>
+        <v>0.4788444095282414</v>
       </c>
       <c r="D531" t="n">
         <v>13293.3332050433</v>
@@ -8945,7 +8945,7 @@
         <v>2020</v>
       </c>
       <c r="C532" t="n">
-        <v>2.642028755309942</v>
+        <v>0.4662921862937441</v>
       </c>
       <c r="D532" t="n">
         <v>5353.34804464198</v>
@@ -8961,7 +8961,7 @@
         <v>2020</v>
       </c>
       <c r="C533" t="n">
-        <v>2.294576679116788</v>
+        <v>0.4027767064217977</v>
       </c>
       <c r="D533" t="n">
         <v>6063.62657980167</v>
@@ -8977,7 +8977,7 @@
         <v>2020</v>
       </c>
       <c r="C534" t="n">
-        <v>2.498272885635461</v>
+        <v>0.4027235420714556</v>
       </c>
       <c r="D534" t="n">
         <v>3224.4228110466</v>
@@ -8993,7 +8993,7 @@
         <v>2020</v>
       </c>
       <c r="C535" t="n">
-        <v>3.368628412831128</v>
+        <v>0.6640786909791797</v>
       </c>
       <c r="D535" t="n">
         <v>15816.8204022734</v>
@@ -9009,7 +9009,7 @@
         <v>2020</v>
       </c>
       <c r="C536" t="n">
-        <v>3.807639337085988</v>
+        <v>0.7915065380945447</v>
       </c>
       <c r="D536" t="n">
         <v>22242.4064179716</v>
@@ -9025,7 +9025,7 @@
         <v>2020</v>
       </c>
       <c r="C537" t="n">
-        <v>3.706998742742662</v>
+        <v>0.740007115470675</v>
       </c>
       <c r="D537" t="n">
         <v>13047.457681178</v>
@@ -9041,7 +9041,7 @@
         <v>2020</v>
       </c>
       <c r="C538" t="n">
-        <v>4.130503965454706</v>
+        <v>0.5217506609091177</v>
       </c>
       <c r="D538" t="n">
         <v>10194.44140625</v>
@@ -9057,7 +9057,7 @@
         <v>2020</v>
       </c>
       <c r="C539" t="n">
-        <v>4.15028232122347</v>
+        <v>0.6606954528861326</v>
       </c>
       <c r="D539" t="n">
         <v>20398.0609873699</v>
@@ -9073,7 +9073,7 @@
         <v>2020</v>
       </c>
       <c r="C540" t="n">
-        <v>3.718912606908373</v>
+        <v>0.7776230723939347</v>
       </c>
       <c r="D540" t="n">
         <v>61274.0064626976</v>
@@ -9089,7 +9089,7 @@
         <v>2020</v>
       </c>
       <c r="C541" t="n">
-        <v>3.699825909609181</v>
+        <v>0.776612330566985</v>
       </c>
       <c r="D541" t="n">
         <v>25545.2410027132</v>
@@ -9105,7 +9105,7 @@
         <v>2020</v>
       </c>
       <c r="C542" t="n">
-        <v>2.434845444166066</v>
+        <v>0.3541707500088678</v>
       </c>
       <c r="D542" t="n">
         <v>5741.64124877252</v>
@@ -9121,7 +9121,7 @@
         <v>2020</v>
       </c>
       <c r="C543" t="n">
-        <v>3.55767622863471</v>
+        <v>0.6888946725785647</v>
       </c>
       <c r="D543" t="n">
         <v>26959.6754367322</v>
@@ -9137,7 +9137,7 @@
         <v>2020</v>
       </c>
       <c r="C544" t="n">
-        <v>3.693412812056361</v>
+        <v>0.7294230251962265</v>
       </c>
       <c r="D544" t="n">
         <v>52837.9039778149</v>
@@ -9153,7 +9153,7 @@
         <v>2020</v>
       </c>
       <c r="C545" t="n">
-        <v>3.600804876303851</v>
+        <v>0.7382242165878096</v>
       </c>
       <c r="D545" t="n">
         <v>85656.32266630699</v>
@@ -9169,7 +9169,7 @@
         <v>2020</v>
       </c>
       <c r="C546" t="n">
-        <v>3.846620647109293</v>
+        <v>0.6406512798537192</v>
       </c>
       <c r="D546" t="n">
         <v>7001.78541255771</v>
@@ -9185,7 +9185,7 @@
         <v>2020</v>
       </c>
       <c r="C547" t="n">
-        <v>3.311159922333218</v>
+        <v>0.5817930671785242</v>
       </c>
       <c r="D547" t="n">
         <v>3497.73323057269</v>
@@ -9201,7 +9201,7 @@
         <v>2020</v>
       </c>
       <c r="C548" t="n">
-        <v>3.965750035016104</v>
+        <v>0.6742518823055417</v>
       </c>
       <c r="D548" t="n">
         <v>7297.18004219407</v>
@@ -9217,7 +9217,7 @@
         <v>2020</v>
       </c>
       <c r="C549" t="n">
-        <v>2.049464990720929</v>
+        <v>0.3058567532916144</v>
       </c>
       <c r="D549" t="n">
         <v>846.881199214807</v>
@@ -9233,7 +9233,7 @@
         <v>2020</v>
       </c>
       <c r="C550" t="n">
-        <v>4.049979601217519</v>
+        <v>0.5799522883924658</v>
       </c>
       <c r="D550" t="n">
         <v>3751.7373046875</v>
@@ -9249,7 +9249,7 @@
         <v>2020</v>
       </c>
       <c r="C551" t="n">
-        <v>4.097347926327153</v>
+        <v>0.7046854972165802</v>
       </c>
       <c r="D551" t="n">
         <v>37629.1741680652</v>
@@ -9265,7 +9265,7 @@
         <v>2020</v>
       </c>
       <c r="C552" t="n">
-        <v>3.80899678290981</v>
+        <v>0.5788552243536607</v>
       </c>
       <c r="D552" t="n">
         <v>63528.6343027508</v>
@@ -9281,7 +9281,7 @@
         <v>2020</v>
       </c>
       <c r="C553" t="n">
-        <v>3.250257429664372</v>
+        <v>0.6060069129021014</v>
       </c>
       <c r="D553" t="n">
         <v>15650.4994274155</v>
@@ -9297,7 +9297,7 @@
         <v>2021</v>
       </c>
       <c r="C554" t="n">
-        <v>3.157767046200862</v>
+        <v>0.6046099198865237</v>
       </c>
       <c r="D554" t="n">
         <v>6377.20309553753</v>
@@ -9313,7 +9313,7 @@
         <v>2021</v>
       </c>
       <c r="C555" t="n">
-        <v>3.393185633991625</v>
+        <v>0.576104415701113</v>
       </c>
       <c r="D555" t="n">
         <v>3700.31119460857</v>
@@ -9329,7 +9329,7 @@
         <v>2021</v>
       </c>
       <c r="C556" t="n">
-        <v>3.110497311752354</v>
+        <v>0.5671617383386538</v>
       </c>
       <c r="D556" t="n">
         <v>10636.1155301986</v>
@@ -9345,7 +9345,7 @@
         <v>2021</v>
       </c>
       <c r="C557" t="n">
-        <v>3.911543541529408</v>
+        <v>0.6813146045918189</v>
       </c>
       <c r="D557" t="n">
         <v>4966.51347122366</v>
@@ -9361,7 +9361,7 @@
         <v>2021</v>
       </c>
       <c r="C558" t="n">
-        <v>3.120295928692101</v>
+        <v>0.6426299666099737</v>
       </c>
       <c r="D558" t="n">
         <v>60444.5023551978</v>
@@ -9377,7 +9377,7 @@
         <v>2021</v>
       </c>
       <c r="C559" t="n">
-        <v>3.444895129943383</v>
+        <v>0.7345434535568721</v>
       </c>
       <c r="D559" t="n">
         <v>53637.7057109897</v>
@@ -9393,7 +9393,7 @@
         <v>2021</v>
       </c>
       <c r="C560" t="n">
-        <v>3.766423224811084</v>
+        <v>0.5927909675760408</v>
       </c>
       <c r="D560" t="n">
         <v>5408.04535175023</v>
@@ -9409,7 +9409,7 @@
         <v>2021</v>
       </c>
       <c r="C561" t="n">
-        <v>4.355864244626358</v>
+        <v>0.7462282701617404</v>
       </c>
       <c r="D561" t="n">
         <v>26860.0725018105</v>
@@ -9425,7 +9425,7 @@
         <v>2021</v>
       </c>
       <c r="C562" t="n">
-        <v>3.177649543630422</v>
+        <v>0.526024027881056</v>
       </c>
       <c r="D562" t="n">
         <v>7489.71894713888</v>
@@ -9441,7 +9441,7 @@
         <v>2021</v>
       </c>
       <c r="C563" t="n">
-        <v>3.673448629413775</v>
+        <v>0.7328507572320448</v>
       </c>
       <c r="D563" t="n">
         <v>51268.3880373598</v>
@@ -9457,7 +9457,7 @@
         <v>2021</v>
       </c>
       <c r="C564" t="n">
-        <v>2.881245837863363</v>
+        <v>0.6008169586403096</v>
       </c>
       <c r="D564" t="n">
         <v>12222.235645941</v>
@@ -9473,7 +9473,7 @@
         <v>2021</v>
       </c>
       <c r="C565" t="n">
-        <v>2.690083716176897</v>
+        <v>0.5908204043090528</v>
       </c>
       <c r="D565" t="n">
         <v>52358.6216405155</v>
@@ -9489,7 +9489,7 @@
         <v>2021</v>
       </c>
       <c r="C566" t="n">
-        <v>3.427609764199093</v>
+        <v>0.6483292259328235</v>
       </c>
       <c r="D566" t="n">
         <v>16247.4010150765</v>
@@ -9505,7 +9505,7 @@
         <v>2021</v>
       </c>
       <c r="C567" t="n">
-        <v>2.78020890041527</v>
+        <v>0.4979559636892833</v>
       </c>
       <c r="D567" t="n">
         <v>12617.5049863004</v>
@@ -9521,7 +9521,7 @@
         <v>2021</v>
       </c>
       <c r="C568" t="n">
-        <v>2.954688716835512</v>
+        <v>0.3747061839887142</v>
       </c>
       <c r="D568" t="n">
         <v>6182.70709867969</v>
@@ -9537,7 +9537,7 @@
         <v>2021</v>
       </c>
       <c r="C569" t="n">
-        <v>3.779597960122608</v>
+        <v>0.7675674019559184</v>
       </c>
       <c r="D569" t="n">
         <v>17747.7892862107</v>
@@ -9553,7 +9553,7 @@
         <v>2021</v>
       </c>
       <c r="C570" t="n">
-        <v>3.795997104216455</v>
+        <v>0.6771106284805202</v>
       </c>
       <c r="D570" t="n">
         <v>31552.03515625</v>
@@ -9569,7 +9569,7 @@
         <v>2021</v>
       </c>
       <c r="C571" t="n">
-        <v>3.978787100179964</v>
+        <v>0.8233462371267681</v>
       </c>
       <c r="D571" t="n">
         <v>68007.7566732954</v>
@@ -9585,7 +9585,7 @@
         <v>2021</v>
       </c>
       <c r="C572" t="n">
-        <v>2.514904262938614</v>
+        <v>0.4494374488410234</v>
       </c>
       <c r="D572" t="n">
         <v>8476.7496882797</v>
@@ -9601,7 +9601,7 @@
         <v>2021</v>
       </c>
       <c r="C573" t="n">
-        <v>2.498508280254092</v>
+        <v>0.4434789786086569</v>
       </c>
       <c r="D573" t="n">
         <v>5965.13287054416</v>
@@ -9617,7 +9617,7 @@
         <v>2021</v>
       </c>
       <c r="C574" t="n">
-        <v>4.214449237111293</v>
+        <v>0.8135193172963266</v>
       </c>
       <c r="D574" t="n">
         <v>27943.701219882</v>
@@ -9633,7 +9633,7 @@
         <v>2021</v>
       </c>
       <c r="C575" t="n">
-        <v>3.985766220899554</v>
+        <v>0.8058714310818252</v>
       </c>
       <c r="D575" t="n">
         <v>53489.7520190898</v>
@@ -9649,7 +9649,7 @@
         <v>2021</v>
       </c>
       <c r="C576" t="n">
-        <v>3.354726383507764</v>
+        <v>0.6030278739538029</v>
       </c>
       <c r="D576" t="n">
         <v>43658.9789781222</v>
@@ -9665,7 +9665,7 @@
         <v>2021</v>
       </c>
       <c r="C577" t="n">
-        <v>3.766345035699465</v>
+        <v>0.6535306242294807</v>
       </c>
       <c r="D577" t="n">
         <v>5023.27438368985</v>
@@ -9681,7 +9681,7 @@
         <v>2021</v>
       </c>
       <c r="C578" t="n">
-        <v>3.121523277928537</v>
+        <v>0.6449850624504549</v>
       </c>
       <c r="D578" t="n">
         <v>51203.5544731043</v>
@@ -9697,7 +9697,7 @@
         <v>2021</v>
       </c>
       <c r="C579" t="n">
-        <v>3.910757356895831</v>
+        <v>0.7111118892317425</v>
       </c>
       <c r="D579" t="n">
         <v>20192.5963039061</v>
@@ -9713,7 +9713,7 @@
         <v>2021</v>
       </c>
       <c r="C580" t="n">
-        <v>2.583471598747197</v>
+        <v>0.4137327216549987</v>
       </c>
       <c r="D580" t="n">
         <v>5029.47733808268</v>
@@ -9729,7 +9729,7 @@
         <v>2021</v>
       </c>
       <c r="C581" t="n">
-        <v>1.341078944451312</v>
+        <v>0.1817568850071181</v>
       </c>
       <c r="D581" t="n">
         <v>2771.72261645247</v>
@@ -9745,7 +9745,7 @@
         <v>2021</v>
       </c>
       <c r="C582" t="n">
-        <v>2.879410617468008</v>
+        <v>0.6182530240582881</v>
       </c>
       <c r="D582" t="n">
         <v>18772.1411117581</v>
@@ -9761,7 +9761,7 @@
         <v>2021</v>
       </c>
       <c r="C583" t="n">
-        <v>2.883981978913326</v>
+        <v>0.4317389319694254</v>
       </c>
       <c r="D583" t="n">
         <v>2238.12713873311</v>
@@ -9777,7 +9777,7 @@
         <v>2021</v>
       </c>
       <c r="C584" t="n">
-        <v>2.750600956091668</v>
+        <v>0.5340607328253137</v>
       </c>
       <c r="D584" t="n">
         <v>4334.21598260314</v>
@@ -9793,7 +9793,7 @@
         <v>2021</v>
       </c>
       <c r="C585" t="n">
-        <v>2.937847721024943</v>
+        <v>0.656307953504157</v>
       </c>
       <c r="D585" t="n">
         <v>100172.079253421</v>
@@ -9809,7 +9809,7 @@
         <v>2021</v>
       </c>
       <c r="C586" t="n">
-        <v>4.255761806468493</v>
+        <v>0.6358169319024547</v>
       </c>
       <c r="D586" t="n">
         <v>52166.8121647134</v>
@@ -9825,7 +9825,7 @@
         <v>2021</v>
       </c>
       <c r="C587" t="n">
-        <v>3.554828381397</v>
+        <v>0.6906792822041594</v>
       </c>
       <c r="D587" t="n">
         <v>35770.0496120858</v>
@@ -9841,7 +9841,7 @@
         <v>2021</v>
       </c>
       <c r="C588" t="n">
-        <v>3.2708585421211</v>
+        <v>0.6833151333642695</v>
       </c>
       <c r="D588" t="n">
         <v>39827.1267678179</v>
@@ -9857,7 +9857,7 @@
         <v>2021</v>
       </c>
       <c r="C589" t="n">
-        <v>3.051301571764811</v>
+        <v>0.5495896884840994</v>
       </c>
       <c r="D589" t="n">
         <v>10373.7897924367</v>
@@ -9873,7 +9873,7 @@
         <v>2021</v>
       </c>
       <c r="C590" t="n">
-        <v>2.430773052480117</v>
+        <v>0.3979603832986575</v>
       </c>
       <c r="D590" t="n">
         <v>2069.66113651418</v>
@@ -9889,7 +9889,7 @@
         <v>2021</v>
       </c>
       <c r="C591" t="n">
-        <v>3.638220850609617</v>
+        <v>0.7104920055675527</v>
       </c>
       <c r="D591" t="n">
         <v>21080.1774491839</v>
@@ -9905,7 +9905,7 @@
         <v>2021</v>
       </c>
       <c r="C592" t="n">
-        <v>4.043118264904684</v>
+        <v>0.7654301050826802</v>
       </c>
       <c r="D592" t="n">
         <v>23712.5357765275</v>
@@ -9921,7 +9921,7 @@
         <v>2021</v>
       </c>
       <c r="C593" t="n">
-        <v>2.774228568506374</v>
+        <v>0.5951671270091269</v>
       </c>
       <c r="D593" t="n">
         <v>11109.2652881747</v>
@@ -9937,7 +9937,7 @@
         <v>2021</v>
       </c>
       <c r="C594" t="n">
-        <v>2.484008031112014</v>
+        <v>0.3295927363681312</v>
       </c>
       <c r="D594" t="n">
         <v>10045.676371041</v>
@@ -9953,7 +9953,7 @@
         <v>2021</v>
       </c>
       <c r="C595" t="n">
-        <v>3.036605423090927</v>
+        <v>0.5754557425581651</v>
       </c>
       <c r="D595" t="n">
         <v>4566.14013102675</v>
@@ -9969,7 +9969,7 @@
         <v>2021</v>
       </c>
       <c r="C596" t="n">
-        <v>3.275405494842248</v>
+        <v>0.6127467939432419</v>
       </c>
       <c r="D596" t="n">
         <v>9465.966408194419</v>
@@ -9985,7 +9985,7 @@
         <v>2021</v>
       </c>
       <c r="C597" t="n">
-        <v>2.858331955808885</v>
+        <v>0.5134854334950292</v>
       </c>
       <c r="D597" t="n">
         <v>1229.39420520705</v>
@@ -10001,7 +10001,7 @@
         <v>2021</v>
       </c>
       <c r="C598" t="n">
-        <v>3.057267279292649</v>
+        <v>0.6733438297028965</v>
       </c>
       <c r="D598" t="n">
         <v>49996.4206725811</v>
@@ -10017,7 +10017,7 @@
         <v>2021</v>
       </c>
       <c r="C599" t="n">
-        <v>4.019941664040518</v>
+        <v>0.7981264780569322</v>
       </c>
       <c r="D599" t="n">
         <v>90655.39102293921</v>
@@ -10033,7 +10033,7 @@
         <v>2021</v>
       </c>
       <c r="C600" t="n">
-        <v>2.659252591079638</v>
+        <v>0.4828144999469647</v>
       </c>
       <c r="D600" t="n">
         <v>15491.2897902482</v>
@@ -10049,7 +10049,7 @@
         <v>2021</v>
       </c>
       <c r="C601" t="n">
-        <v>2.389789207747751</v>
+        <v>0.4244630758432631</v>
       </c>
       <c r="D601" t="n">
         <v>5959.44176327886</v>
@@ -10065,7 +10065,7 @@
         <v>2021</v>
       </c>
       <c r="C602" t="n">
-        <v>2.434558575189855</v>
+        <v>0.4200966800943665</v>
       </c>
       <c r="D602" t="n">
         <v>6635.46392344859</v>
@@ -10081,7 +10081,7 @@
         <v>2021</v>
       </c>
       <c r="C603" t="n">
-        <v>2.436065693665912</v>
+        <v>0.3904195510948562</v>
       </c>
       <c r="D603" t="n">
         <v>3460.53940077621</v>
@@ -10097,7 +10097,7 @@
         <v>2021</v>
       </c>
       <c r="C604" t="n">
-        <v>3.594658688743992</v>
+        <v>0.7281420395218481</v>
       </c>
       <c r="D604" t="n">
         <v>17999.8322682985</v>
@@ -10113,7 +10113,7 @@
         <v>2021</v>
       </c>
       <c r="C605" t="n">
-        <v>3.770433491930279</v>
+        <v>0.78682852105648</v>
       </c>
       <c r="D605" t="n">
         <v>24598.4727937544</v>
@@ -10129,7 +10129,7 @@
         <v>2021</v>
       </c>
       <c r="C606" t="n">
-        <v>3.714276961030595</v>
+        <v>0.7358920383079666</v>
       </c>
       <c r="D606" t="n">
         <v>14927.1168555732</v>
@@ -10145,7 +10145,7 @@
         <v>2021</v>
       </c>
       <c r="C607" t="n">
-        <v>4.378047378346853</v>
+        <v>0.5630078963911421</v>
       </c>
       <c r="D607" t="n">
         <v>12593.1572265625</v>
@@ -10161,7 +10161,7 @@
         <v>2021</v>
       </c>
       <c r="C608" t="n">
-        <v>4.095004817358164</v>
+        <v>0.649525892498762</v>
       </c>
       <c r="D608" t="n">
         <v>24160.6760455307</v>
@@ -10177,7 +10177,7 @@
         <v>2021</v>
       </c>
       <c r="C609" t="n">
-        <v>3.655154681322652</v>
+        <v>0.7654648483208004</v>
       </c>
       <c r="D609" t="n">
         <v>77710.0699565617</v>
@@ -10193,7 +10193,7 @@
         <v>2021</v>
       </c>
       <c r="C610" t="n">
-        <v>3.695925994839926</v>
+        <v>0.7787116801435719</v>
       </c>
       <c r="D610" t="n">
         <v>29291.4006234431</v>
@@ -10209,7 +10209,7 @@
         <v>2021</v>
       </c>
       <c r="C611" t="n">
-        <v>2.384976063455377</v>
+        <v>0.3444494155938174</v>
       </c>
       <c r="D611" t="n">
         <v>7055.05517621298</v>
@@ -10225,7 +10225,7 @@
         <v>2021</v>
       </c>
       <c r="C612" t="n">
-        <v>3.508010871855867</v>
+        <v>0.6902240341982</v>
       </c>
       <c r="D612" t="n">
         <v>30103.513733191</v>
@@ -10241,7 +10241,7 @@
         <v>2021</v>
       </c>
       <c r="C613" t="n">
-        <v>3.693191673279226</v>
+        <v>0.7341699383780789</v>
       </c>
       <c r="D613" t="n">
         <v>61143.2212428047</v>
@@ -10257,7 +10257,7 @@
         <v>2021</v>
       </c>
       <c r="C614" t="n">
-        <v>3.932022023824489</v>
+        <v>0.8035448892754075</v>
       </c>
       <c r="D614" t="n">
         <v>91991.6004583563</v>
@@ -10273,7 +10273,7 @@
         <v>2021</v>
       </c>
       <c r="C615" t="n">
-        <v>3.780368497145718</v>
+        <v>0.6390219896676554</v>
       </c>
       <c r="D615" t="n">
         <v>7060.89760941608</v>
@@ -10289,7 +10289,7 @@
         <v>2021</v>
       </c>
       <c r="C616" t="n">
-        <v>3.62274896936274</v>
+        <v>0.6338990217755105</v>
       </c>
       <c r="D616" t="n">
         <v>3807.18456310206</v>
@@ -10305,7 +10305,7 @@
         <v>2021</v>
       </c>
       <c r="C617" t="n">
-        <v>3.934497450623142</v>
+        <v>0.6828105070034984</v>
       </c>
       <c r="D617" t="n">
         <v>6440.209228732542</v>
@@ -10321,7 +10321,7 @@
         <v>2021</v>
       </c>
       <c r="C618" t="n">
-        <v>2.047816935045848</v>
+        <v>0.3092239694610463</v>
       </c>
       <c r="D618" t="n">
         <v>883.465728078128</v>
@@ -10337,7 +10337,7 @@
         <v>2021</v>
       </c>
       <c r="C619" t="n">
-        <v>3.895969548259654</v>
+        <v>0.5932350680791179</v>
       </c>
       <c r="D619" t="n">
         <v>4827.845703125</v>
@@ -10353,7 +10353,7 @@
         <v>2021</v>
       </c>
       <c r="C620" t="n">
-        <v>4.297344307200828</v>
+        <v>0.7468692124904605</v>
       </c>
       <c r="D620" t="n">
         <v>44315.554183896</v>
@@ -10369,7 +10369,7 @@
         <v>2021</v>
       </c>
       <c r="C621" t="n">
-        <v>3.845703982685854</v>
+        <v>0.5748216315229113</v>
       </c>
       <c r="D621" t="n">
         <v>70219.47245411501</v>
@@ -10385,7 +10385,7 @@
         <v>2021</v>
       </c>
       <c r="C622" t="n">
-        <v>3.336553686790259</v>
+        <v>0.6173826037123549</v>
       </c>
       <c r="D622" t="n">
         <v>17923.9953327961</v>
